--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ119"/>
+  <dimension ref="A1:AJ126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.05</v>
@@ -668,16 +668,16 @@
         <v>3.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>1.7</v>
@@ -689,16 +689,16 @@
         <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
+        <v>19</v>
+      </c>
+      <c r="X2" t="n">
         <v>17</v>
-      </c>
-      <c r="X2" t="n">
-        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>23</v>
@@ -719,19 +719,19 @@
         <v>151</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -793,7 +793,7 @@
         <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
         <v>1.8</v>
@@ -817,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="W3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
         <v>34</v>
@@ -1030,10 +1030,10 @@
         <v>2.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>1.62</v>
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>1.17</v>
@@ -1150,16 +1150,16 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
         <v>2.63</v>
@@ -1168,19 +1168,19 @@
         <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
         <v>12</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1189,10 +1189,10 @@
         <v>5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>126</v>
@@ -1202,16 +1202,16 @@
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1258,10 +1258,10 @@
         <v>2.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.53</v>
@@ -1273,7 +1273,7 @@
         <v>2.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
         <v>1.57</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.62</v>
@@ -1390,10 +1390,10 @@
         <v>2.2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
         <v>1.62</v>
@@ -1402,34 +1402,34 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1445,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1489,31 +1489,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
         <v>1.57</v>
@@ -1522,22 +1522,22 @@
         <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
         <v>4.75</v>
       </c>
       <c r="U9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>101</v>
@@ -1565,16 +1565,16 @@
         <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="n">
         <v>67</v>
       </c>
-      <c r="AI9" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1633,7 +1633,7 @@
         <v>2.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
         <v>1.57</v>
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1870,10 +1870,10 @@
         <v>2.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
         <v>1.62</v>
@@ -1882,10 +1882,10 @@
         <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
         <v>5.5</v>
@@ -1909,22 +1909,22 @@
         <v>5.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="n">
         <v>900</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2306,7 +2306,7 @@
         <v>1.95</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
@@ -2413,7 +2413,7 @@
         <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2523,31 +2523,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2571,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
@@ -2595,7 +2595,7 @@
         <v>301</v>
       </c>
       <c r="AE19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF19" t="n">
         <v>12</v>
@@ -2607,7 +2607,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2645,13 +2645,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>1.1</v>
@@ -2666,10 +2666,10 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
         <v>1.53</v>
@@ -2708,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
         <v>67</v>
@@ -2717,19 +2717,19 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>41</v>
@@ -2794,10 +2794,10 @@
         <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
         <v>2.1</v>
@@ -2818,22 +2818,22 @@
         <v>29</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
       </c>
       <c r="Z21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
         <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="n">
         <v>501</v>
@@ -2848,7 +2848,7 @@
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -3154,16 +3154,16 @@
         <v>2.63</v>
       </c>
       <c r="N24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
         <v>2.1</v>
@@ -3375,70 +3375,70 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N26" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="U26" t="n">
         <v>9.5</v>
       </c>
       <c r="V26" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
         <v>110</v>
@@ -3447,19 +3447,19 @@
         <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
         <v>45</v>
       </c>
       <c r="AI26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="n">
         <v>50</v>
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
         <v>4.9</v>
@@ -3753,70 +3753,70 @@
         <v>1.09</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R29" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S29" t="n">
         <v>1.7</v>
       </c>
       <c r="T29" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="U29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W29" t="n">
         <v>13.5</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD29" t="n">
         <v>700</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>16</v>
@@ -3828,7 +3828,7 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -3866,13 +3866,13 @@
         <v>3.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
         <v>7.6</v>
@@ -3884,7 +3884,7 @@
         <v>3.3</v>
       </c>
       <c r="N30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O30" t="n">
         <v>1.83</v>
@@ -3899,10 +3899,10 @@
         <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T30" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U30" t="n">
         <v>17</v>
@@ -3914,10 +3914,10 @@
         <v>45</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z30" t="n">
         <v>7.6</v>
@@ -3935,22 +3935,22 @@
         <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
         <v>9.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -3988,28 +3988,28 @@
         <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P31" t="n">
         <v>1.4</v>
@@ -4018,10 +4018,10 @@
         <v>2.75</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
         <v>8</v>
@@ -4042,7 +4042,7 @@
         <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA31" t="n">
         <v>6</v>
@@ -4054,7 +4054,7 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
         <v>10</v>
@@ -4229,91 +4229,91 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O33" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="R33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="V33" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W33" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="n">
         <v>600</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>11.25</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="n">
         <v>32</v>
@@ -4354,7 +4354,7 @@
         <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
         <v>2.37</v>
@@ -4390,7 +4390,7 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U34" t="n">
         <v>15.5</v>
@@ -4399,10 +4399,10 @@
         <v>12</v>
       </c>
       <c r="W34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="n">
         <v>50</v>
@@ -4414,7 +4414,7 @@
         <v>6.3</v>
       </c>
       <c r="AB34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC34" t="n">
         <v>110</v>
@@ -4423,7 +4423,7 @@
         <v>1250</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF34" t="n">
         <v>11</v>
@@ -4435,7 +4435,7 @@
         <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ34" t="n">
         <v>45</v>
@@ -4595,22 +4595,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M36" t="n">
         <v>3.6</v>
@@ -4619,13 +4619,13 @@
         <v>1.78</v>
       </c>
       <c r="O36" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P36" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="R36" t="n">
         <v>1.65</v>
@@ -4634,31 +4634,31 @@
         <v>2.12</v>
       </c>
       <c r="T36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>32</v>
+      </c>
+      <c r="X36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z36" t="n">
         <v>8.5</v>
       </c>
-      <c r="U36" t="n">
-        <v>13</v>
-      </c>
-      <c r="V36" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>26</v>
-      </c>
-      <c r="X36" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="n">
         <v>60</v>
@@ -4667,22 +4667,22 @@
         <v>400</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF36" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -4961,10 +4961,10 @@
         <v>1.38</v>
       </c>
       <c r="M39" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.57</v>
@@ -5003,10 +5003,10 @@
         <v>8</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC39" t="n">
         <v>100</v>
@@ -5024,7 +5024,7 @@
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
         <v>18</v>
@@ -5065,13 +5065,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5088,19 +5088,19 @@
         <v>1.75</v>
       </c>
       <c r="P40" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R40" t="n">
         <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T40" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U40" t="n">
         <v>8.5</v>
@@ -5118,7 +5118,7 @@
         <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6.6</v>
@@ -5130,25 +5130,25 @@
         <v>70</v>
       </c>
       <c r="AD40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE40" t="n">
         <v>11.75</v>
       </c>
       <c r="AF40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG40" t="n">
         <v>13.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI40" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -6469,7 +6469,7 @@
         <v>1.06</v>
       </c>
       <c r="K52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L52" t="n">
         <v>1.29</v>
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
         <v>6</v>
@@ -6704,7 +6704,7 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U54" t="n">
         <v>65</v>
@@ -6713,46 +6713,46 @@
         <v>25</v>
       </c>
       <c r="W54" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X54" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z54" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA54" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD54" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE54" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF54" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AG54" t="n">
         <v>8.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AI54" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -7301,7 +7301,7 @@
         <v>19</v>
       </c>
       <c r="Y59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z59" t="n">
         <v>13.5</v>
@@ -7322,7 +7322,7 @@
         <v>10.75</v>
       </c>
       <c r="AF59" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG59" t="n">
         <v>9.25</v>
@@ -7331,7 +7331,7 @@
         <v>28</v>
       </c>
       <c r="AI59" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ59" t="n">
         <v>22</v>
@@ -7487,55 +7487,55 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
       </c>
       <c r="K61" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M61" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="N61" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O61" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="P61" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S61" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="T61" t="n">
         <v>12.5</v>
       </c>
       <c r="U61" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V61" t="n">
         <v>9.25</v>
       </c>
       <c r="W61" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X61" t="n">
         <v>16.5</v>
@@ -7544,10 +7544,10 @@
         <v>19</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AB61" t="n">
         <v>10.75</v>
@@ -7556,13 +7556,13 @@
         <v>32</v>
       </c>
       <c r="AD61" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE61" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG61" t="n">
         <v>10</v>
@@ -7571,10 +7571,10 @@
         <v>32</v>
       </c>
       <c r="AI61" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -7734,91 +7734,91 @@
         <v>1.78</v>
       </c>
       <c r="H63" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J63" t="n">
         <v>1.03</v>
       </c>
       <c r="K63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="L63" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M63" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="O63" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="P63" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="R63" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S63" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T63" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U63" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V63" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W63" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X63" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB63" t="n">
         <v>12</v>
       </c>
       <c r="AC63" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD63" t="n">
         <v>200</v>
       </c>
       <c r="AE63" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG63" t="n">
         <v>13</v>
       </c>
       <c r="AH63" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI63" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="64">
@@ -7975,19 +7975,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H65" t="n">
         <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L65" t="n">
         <v>1.36</v>
@@ -8014,7 +8014,7 @@
         <v>1.8</v>
       </c>
       <c r="T65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U65" t="n">
         <v>11</v>
@@ -8032,7 +8032,7 @@
         <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
@@ -8047,22 +8047,22 @@
         <v>351</v>
       </c>
       <c r="AE65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG65" t="n">
         <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI65" t="n">
         <v>26</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -8109,7 +8109,7 @@
         <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" t="n">
         <v>1.25</v>
@@ -8124,10 +8124,10 @@
         <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R66" t="n">
         <v>1.67</v>
@@ -8181,7 +8181,7 @@
         <v>29</v>
       </c>
       <c r="AI66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ66" t="n">
         <v>29</v>
@@ -9180,10 +9180,10 @@
         <v>3.75</v>
       </c>
       <c r="N75" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O75" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P75" t="n">
         <v>1.36</v>
@@ -9281,10 +9281,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
         <v>1.25</v>
@@ -9329,7 +9329,7 @@
         <v>29</v>
       </c>
       <c r="W76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="X76" t="n">
         <v>67</v>
@@ -9341,10 +9341,10 @@
         <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
@@ -9356,7 +9356,7 @@
         <v>10</v>
       </c>
       <c r="AF76" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG76" t="n">
         <v>9.5</v>
@@ -9368,7 +9368,7 @@
         <v>10</v>
       </c>
       <c r="AJ76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -9412,10 +9412,10 @@
         <v>7.5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L77" t="n">
         <v>1.3</v>
@@ -10245,19 +10245,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H84" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
       </c>
       <c r="K84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L84" t="n">
         <v>1.33</v>
@@ -10278,58 +10278,58 @@
         <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y84" t="n">
         <v>29</v>
       </c>
       <c r="Z84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA84" t="n">
         <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC84" t="n">
         <v>51</v>
       </c>
       <c r="AD84" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE84" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF84" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH84" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ84" t="n">
         <v>41</v>
@@ -10489,19 +10489,19 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J86" t="n">
         <v>1.06</v>
       </c>
       <c r="K86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.33</v>
@@ -10510,16 +10510,16 @@
         <v>3.25</v>
       </c>
       <c r="N86" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O86" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R86" t="n">
         <v>1.83</v>
@@ -10546,7 +10546,7 @@
         <v>29</v>
       </c>
       <c r="Z86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA86" t="n">
         <v>6.5</v>
@@ -10561,10 +10561,10 @@
         <v>301</v>
       </c>
       <c r="AE86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG86" t="n">
         <v>13</v>
@@ -10573,7 +10573,7 @@
         <v>41</v>
       </c>
       <c r="AI86" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ86" t="n">
         <v>41</v>
@@ -10975,19 +10975,19 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="H90" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I90" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L90" t="n">
         <v>1.42</v>
@@ -11008,59 +11008,59 @@
         <v>2.42</v>
       </c>
       <c r="R90" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="S90" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T90" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="U90" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="V90" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W90" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="X90" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z90" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA90" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AB90" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AC90" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AG90" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AH90" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI90" t="n">
         <v>120</v>
       </c>
-      <c r="AI90" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ90" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
@@ -11654,10 +11654,10 @@
         <v>1.33</v>
       </c>
       <c r="J96" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L96" t="n">
         <v>1.2</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H97" t="n">
         <v>3.7</v>
@@ -11916,7 +11916,7 @@
         <v>2.4</v>
       </c>
       <c r="P98" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q98" t="n">
         <v>3.75</v>
@@ -12011,7 +12011,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H99" t="n">
         <v>4.33</v>
@@ -12020,10 +12020,10 @@
         <v>1.53</v>
       </c>
       <c r="J99" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L99" t="n">
         <v>1.14</v>
@@ -12032,25 +12032,25 @@
         <v>5.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O99" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q99" t="n">
         <v>3.75</v>
       </c>
       <c r="R99" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S99" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U99" t="n">
         <v>34</v>
@@ -12065,13 +12065,13 @@
         <v>41</v>
       </c>
       <c r="Y99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB99" t="n">
         <v>15</v>
@@ -12080,10 +12080,10 @@
         <v>41</v>
       </c>
       <c r="AD99" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE99" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF99" t="n">
         <v>9</v>
@@ -12098,7 +12098,7 @@
         <v>11</v>
       </c>
       <c r="AJ99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
@@ -12280,10 +12280,10 @@
         <v>1.7</v>
       </c>
       <c r="P101" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R101" t="n">
         <v>1.83</v>
@@ -12390,16 +12390,16 @@
         <v>15</v>
       </c>
       <c r="L102" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M102" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N102" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O102" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P102" t="n">
         <v>1.29</v>
@@ -12500,16 +12500,16 @@
         <v>1.7</v>
       </c>
       <c r="H103" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I103" t="n">
         <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L103" t="n">
         <v>1.5</v>
@@ -12518,25 +12518,25 @@
         <v>2.5</v>
       </c>
       <c r="N103" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O103" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P103" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R103" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S103" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T103" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U103" t="n">
         <v>6.5</v>
@@ -12548,29 +12548,29 @@
         <v>12</v>
       </c>
       <c r="X103" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y103" t="n">
         <v>41</v>
       </c>
       <c r="Z103" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA103" t="n">
         <v>6.5</v>
       </c>
       <c r="AB103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC103" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="n">
         <v>11</v>
       </c>
       <c r="AF103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG103" t="n">
         <v>21</v>
@@ -12632,16 +12632,16 @@
         <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M104" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O104" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P104" t="n">
         <v>1.29</v>
@@ -12659,10 +12659,10 @@
         <v>12</v>
       </c>
       <c r="U104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W104" t="n">
         <v>29</v>
@@ -12680,7 +12680,7 @@
         <v>7</v>
       </c>
       <c r="AB104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC104" t="n">
         <v>34</v>
@@ -12689,13 +12689,13 @@
         <v>101</v>
       </c>
       <c r="AE104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF104" t="n">
         <v>15</v>
       </c>
       <c r="AG104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH104" t="n">
         <v>23</v>
@@ -12739,10 +12739,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I105" t="n">
         <v>5.25</v>
@@ -12766,19 +12766,19 @@
         <v>2.5</v>
       </c>
       <c r="P105" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q105" t="n">
         <v>3.75</v>
       </c>
       <c r="R105" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S105" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U105" t="n">
         <v>10</v>
@@ -12921,7 +12921,7 @@
         <v>6.5</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB106" t="n">
         <v>17.5</v>
@@ -12936,7 +12936,7 @@
         <v>10</v>
       </c>
       <c r="AF106" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG106" t="n">
         <v>14</v>
@@ -13004,7 +13004,7 @@
         <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O107" t="n">
         <v>1.72</v>
@@ -13349,7 +13349,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H110" t="n">
         <v>4.33</v>
@@ -13361,7 +13361,7 @@
         <v>1.03</v>
       </c>
       <c r="K110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L110" t="n">
         <v>1.18</v>
@@ -13418,7 +13418,7 @@
         <v>41</v>
       </c>
       <c r="AD110" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE110" t="n">
         <v>17</v>
@@ -14081,13 +14081,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="H116" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I116" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J116" t="n">
         <v>1.04</v>
@@ -14102,10 +14102,10 @@
         <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O116" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P116" t="n">
         <v>1.3</v>
@@ -14123,19 +14123,19 @@
         <v>15</v>
       </c>
       <c r="U116" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W116" t="n">
+        <v>51</v>
+      </c>
+      <c r="X116" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y116" t="n">
         <v>41</v>
-      </c>
-      <c r="X116" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>34</v>
       </c>
       <c r="Z116" t="n">
         <v>13</v>
@@ -14144,7 +14144,7 @@
         <v>7.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC116" t="n">
         <v>41</v>
@@ -14156,19 +14156,19 @@
         <v>8.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG116" t="n">
         <v>8.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI116" t="n">
         <v>13</v>
       </c>
       <c r="AJ116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
@@ -14203,13 +14203,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J117" t="n">
         <v>1.03</v>
@@ -14224,10 +14224,10 @@
         <v>5</v>
       </c>
       <c r="N117" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O117" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P117" t="n">
         <v>1.25</v>
@@ -14236,61 +14236,61 @@
         <v>3.75</v>
       </c>
       <c r="R117" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S117" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U117" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V117" t="n">
         <v>8.5</v>
       </c>
       <c r="W117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z117" t="n">
         <v>17</v>
       </c>
       <c r="AA117" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC117" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI117" t="n">
         <v>34</v>
       </c>
-      <c r="AD117" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ117" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
@@ -14417,6 +14417,848 @@
       <c r="AI119" t="inlineStr"/>
       <c r="AJ119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>KY4P2H1b</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T120" t="n">
+        <v>7</v>
+      </c>
+      <c r="U120" t="n">
+        <v>12</v>
+      </c>
+      <c r="V120" t="n">
+        <v>11</v>
+      </c>
+      <c r="W120" t="n">
+        <v>29</v>
+      </c>
+      <c r="X120" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ANJ7Ffo4</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Montevideo City</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K121" t="n">
+        <v>13</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M121" t="n">
+        <v>4</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2</v>
+      </c>
+      <c r="T121" t="n">
+        <v>15</v>
+      </c>
+      <c r="U121" t="n">
+        <v>26</v>
+      </c>
+      <c r="V121" t="n">
+        <v>15</v>
+      </c>
+      <c r="W121" t="n">
+        <v>51</v>
+      </c>
+      <c r="X121" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ei2zIs8e</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K122" t="n">
+        <v>8</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T122" t="n">
+        <v>10</v>
+      </c>
+      <c r="U122" t="n">
+        <v>21</v>
+      </c>
+      <c r="V122" t="n">
+        <v>15</v>
+      </c>
+      <c r="W122" t="n">
+        <v>51</v>
+      </c>
+      <c r="X122" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>OQ1taZ0N</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U123" t="n">
+        <v>12</v>
+      </c>
+      <c r="V123" t="n">
+        <v>12</v>
+      </c>
+      <c r="W123" t="n">
+        <v>29</v>
+      </c>
+      <c r="X123" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>YiFkuSf3</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Artigas</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T124" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U124" t="n">
+        <v>11</v>
+      </c>
+      <c r="V124" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W124" t="n">
+        <v>26</v>
+      </c>
+      <c r="X124" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>6oXMSo1T</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K125" t="n">
+        <v>11</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T125" t="n">
+        <v>7</v>
+      </c>
+      <c r="U125" t="n">
+        <v>9</v>
+      </c>
+      <c r="V125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W125" t="n">
+        <v>17</v>
+      </c>
+      <c r="X125" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4Q4FDBsf</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T126" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U126" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V126" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W126" t="n">
+        <v>35</v>
+      </c>
+      <c r="X126" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>1.14</v>
@@ -922,16 +922,16 @@
         <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
         <v>5.5</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -940,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -3863,64 +3863,64 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
         <v>3.3</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R30" t="n">
         <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T30" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
         <v>35</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA30" t="n">
         <v>6.6</v>
@@ -3935,7 +3935,7 @@
         <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -3947,10 +3947,10 @@
         <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -4390,7 +4390,7 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U34" t="n">
         <v>15.5</v>
@@ -4402,7 +4402,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y34" t="n">
         <v>50</v>
@@ -4414,7 +4414,7 @@
         <v>6.3</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC34" t="n">
         <v>110</v>
@@ -4423,7 +4423,7 @@
         <v>1250</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
         <v>11</v>
@@ -4435,7 +4435,7 @@
         <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ34" t="n">
         <v>45</v>
@@ -4473,94 +4473,94 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K35" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="N35" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P35" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="R35" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T35" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="U35" t="n">
         <v>13.5</v>
       </c>
       <c r="V35" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W35" t="n">
         <v>32</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE35" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF35" t="n">
         <v>14.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH35" t="n">
         <v>35</v>
       </c>
       <c r="AI35" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -4958,28 +4958,28 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P39" t="n">
         <v>1.47</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S39" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T39" t="n">
         <v>8.75</v>
@@ -4997,25 +4997,25 @@
         <v>37</v>
       </c>
       <c r="Y39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA39" t="n">
         <v>6.4</v>
       </c>
       <c r="AB39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD39" t="n">
         <v>900</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF39" t="n">
         <v>8.5</v>
@@ -5030,7 +5030,7 @@
         <v>18</v>
       </c>
       <c r="AJ39" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H53" t="n">
         <v>3.45</v>
@@ -6602,10 +6602,10 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="U53" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V53" t="n">
         <v>7</v>
@@ -6614,31 +6614,31 @@
         <v>13.5</v>
       </c>
       <c r="X53" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y53" t="n">
         <v>17</v>
       </c>
       <c r="Z53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA53" t="n">
         <v>6.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD53" t="n">
         <v>200</v>
       </c>
       <c r="AE53" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG53" t="n">
         <v>10.25</v>
@@ -6647,10 +6647,10 @@
         <v>40</v>
       </c>
       <c r="AI53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ53" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -6924,16 +6924,16 @@
         <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O56" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7149,79 +7149,79 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H58" t="n">
         <v>4.15</v>
       </c>
       <c r="I58" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O58" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S58" t="n">
         <v>2.82</v>
       </c>
       <c r="T58" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U58" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V58" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W58" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X58" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y58" t="n">
         <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA58" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB58" t="n">
         <v>11.25</v>
       </c>
       <c r="AC58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD58" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF58" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG58" t="n">
         <v>9</v>
       </c>
       <c r="AH58" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ58" t="n">
         <v>14.5</v>
@@ -7286,10 +7286,10 @@
         <v>2.32</v>
       </c>
       <c r="T59" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="U59" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V59" t="n">
         <v>9.75</v>
@@ -7319,7 +7319,7 @@
         <v>200</v>
       </c>
       <c r="AE59" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
         <v>14.5</v>
@@ -8350,10 +8350,10 @@
         <v>3.9</v>
       </c>
       <c r="J68" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K68" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L68" t="n">
         <v>1.44</v>
@@ -8484,10 +8484,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O69" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P69" t="n">
         <v>1.44</v>
@@ -9424,10 +9424,10 @@
         <v>3.4</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P77" t="n">
         <v>1.4</v>
@@ -10367,25 +10367,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I85" t="n">
         <v>3.4</v>
       </c>
-      <c r="I85" t="n">
-        <v>3.75</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L85" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M85" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
         <v>1.8</v>
@@ -10400,37 +10400,37 @@
         <v>3.25</v>
       </c>
       <c r="R85" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S85" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V85" t="n">
         <v>9</v>
       </c>
       <c r="W85" t="n">
+        <v>19</v>
+      </c>
+      <c r="X85" t="n">
         <v>17</v>
-      </c>
-      <c r="X85" t="n">
-        <v>15</v>
       </c>
       <c r="Y85" t="n">
         <v>23</v>
       </c>
       <c r="Z85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA85" t="n">
         <v>6.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC85" t="n">
         <v>41</v>
@@ -10442,19 +10442,19 @@
         <v>12</v>
       </c>
       <c r="AF85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ85" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="86">
@@ -11529,7 +11529,7 @@
         <v>3.1</v>
       </c>
       <c r="I95" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J95" t="n">
         <v>1.08</v>
@@ -11562,7 +11562,7 @@
         <v>1.8</v>
       </c>
       <c r="T95" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U95" t="n">
         <v>9.5</v>
@@ -11586,7 +11586,7 @@
         <v>6</v>
       </c>
       <c r="AB95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC95" t="n">
         <v>51</v>
@@ -11601,7 +11601,7 @@
         <v>17</v>
       </c>
       <c r="AG95" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH95" t="n">
         <v>41</v>
@@ -11889,13 +11889,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H98" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I98" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J98" t="n">
         <v>1.03</v>
@@ -11910,10 +11910,10 @@
         <v>5</v>
       </c>
       <c r="N98" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O98" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P98" t="n">
         <v>1.25</v>
@@ -11922,10 +11922,10 @@
         <v>3.75</v>
       </c>
       <c r="R98" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S98" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T98" t="n">
         <v>8</v>
@@ -11937,7 +11937,7 @@
         <v>9.5</v>
       </c>
       <c r="W98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
@@ -11946,13 +11946,13 @@
         <v>29</v>
       </c>
       <c r="Z98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA98" t="n">
         <v>12</v>
       </c>
       <c r="AB98" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC98" t="n">
         <v>67</v>
@@ -11964,10 +11964,10 @@
         <v>23</v>
       </c>
       <c r="AF98" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH98" t="n">
         <v>126</v>
@@ -12020,10 +12020,10 @@
         <v>1.53</v>
       </c>
       <c r="J99" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L99" t="n">
         <v>1.14</v>
@@ -12044,13 +12044,13 @@
         <v>3.75</v>
       </c>
       <c r="R99" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S99" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U99" t="n">
         <v>34</v>
@@ -12068,10 +12068,10 @@
         <v>34</v>
       </c>
       <c r="Z99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA99" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB99" t="n">
         <v>15</v>
@@ -12098,7 +12098,7 @@
         <v>11</v>
       </c>
       <c r="AJ99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
@@ -12375,10 +12375,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H102" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I102" t="n">
         <v>5.25</v>
@@ -12414,7 +12414,7 @@
         <v>2.1</v>
       </c>
       <c r="T102" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U102" t="n">
         <v>8.5</v>
@@ -12435,7 +12435,7 @@
         <v>15</v>
       </c>
       <c r="AA102" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB102" t="n">
         <v>15</v>
@@ -12497,7 +12497,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H103" t="n">
         <v>3.3</v>
@@ -12506,16 +12506,16 @@
         <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K103" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L103" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M103" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N103" t="n">
         <v>2.5</v>
@@ -12557,10 +12557,10 @@
         <v>6.5</v>
       </c>
       <c r="AA103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC103" t="n">
         <v>81</v>
@@ -13004,7 +13004,7 @@
         <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O107" t="n">
         <v>1.72</v>
@@ -13361,19 +13361,19 @@
         <v>1.03</v>
       </c>
       <c r="K110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L110" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M110" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O110" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P110" t="n">
         <v>1.29</v>
@@ -14933,90 +14933,90 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H124" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I124" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M124" t="n">
-        <v>2.4</v>
+        <v>2.77</v>
       </c>
       <c r="N124" t="n">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="O124" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="P124" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="R124" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S124" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="T124" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="U124" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V124" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W124" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X124" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y124" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH124" t="n">
         <v>37</v>
       </c>
-      <c r="Z124" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA124" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>40</v>
-      </c>
       <c r="AI124" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ124" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125">

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -1258,22 +1258,22 @@
         <v>2.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
         <v>1.57</v>
@@ -1618,16 +1618,16 @@
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N10" t="n">
         <v>2.7</v>
@@ -2413,7 +2413,7 @@
         <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2645,13 +2645,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
         <v>1.1</v>
@@ -2687,13 +2687,13 @@
         <v>6.5</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2726,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI20" t="n">
         <v>29</v>
@@ -2901,19 +2901,19 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3011,25 +3011,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H23" t="n">
         <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N23" t="n">
         <v>1.85</v>
@@ -3038,22 +3038,22 @@
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V23" t="n">
         <v>9</v>
@@ -3065,40 +3065,40 @@
         <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>101</v>
       </c>
       <c r="AI23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J25" t="n">
         <v>1.1</v>
@@ -3300,10 +3300,10 @@
         <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
         <v>19</v>
@@ -3328,13 +3328,13 @@
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
@@ -3375,19 +3375,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.47</v>
@@ -3408,7 +3408,7 @@
         <v>2.37</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S26" t="n">
         <v>1.7</v>
@@ -3417,49 +3417,49 @@
         <v>6.1</v>
       </c>
       <c r="U26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V26" t="n">
         <v>9.5</v>
       </c>
-      <c r="V26" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
         <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD26" t="n">
         <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ26" t="n">
         <v>50</v>
@@ -3497,82 +3497,82 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T27" t="n">
         <v>5.7</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T27" t="n">
-        <v>5.5</v>
-      </c>
       <c r="U27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD27" t="n">
         <v>900</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>14.5</v>
@@ -3866,16 +3866,16 @@
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.3</v>
@@ -3890,22 +3890,22 @@
         <v>1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="U30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
         <v>11.25</v>
@@ -3914,43 +3914,43 @@
         <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y30" t="n">
         <v>35</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD30" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>9.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -4354,10 +4354,10 @@
         <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="J34" t="n">
         <v>1.1</v>
@@ -4390,7 +4390,7 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U34" t="n">
         <v>15.5</v>
@@ -4402,7 +4402,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="n">
         <v>50</v>
@@ -4423,7 +4423,7 @@
         <v>1250</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF34" t="n">
         <v>11</v>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
@@ -5018,13 +5018,13 @@
         <v>6</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG39" t="n">
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI39" t="n">
         <v>18</v>
@@ -5065,27 +5065,27 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N40" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O40" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P40" t="n">
         <v>1.39</v>
@@ -5103,43 +5103,43 @@
         <v>6.8</v>
       </c>
       <c r="U40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V40" t="n">
         <v>8.25</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X40" t="n">
         <v>14.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB40" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC40" t="n">
         <v>70</v>
       </c>
       <c r="AD40" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
         <v>70</v>
@@ -5148,7 +5148,7 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
@@ -5427,88 +5427,90 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H43" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="I43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="N43" t="n">
-        <v>2.35</v>
+        <v>1.98</v>
       </c>
       <c r="O43" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="P43" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="S43" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="T43" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="U43" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="V43" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X43" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB43" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD43" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>500</v>
+      </c>
       <c r="AE43" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
         <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ43" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
@@ -5847,94 +5849,94 @@
         </is>
       </c>
       <c r="G47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>11</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M47" t="n">
         <v>3.5</v>
       </c>
-      <c r="H47" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.1</v>
-      </c>
       <c r="N47" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="P47" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="S47" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="U47" t="n">
+        <v>17</v>
+      </c>
+      <c r="V47" t="n">
+        <v>12</v>
+      </c>
+      <c r="W47" t="n">
+        <v>41</v>
+      </c>
+      <c r="X47" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH47" t="n">
         <v>19</v>
       </c>
-      <c r="V47" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W47" t="n">
-        <v>55</v>
-      </c>
-      <c r="X47" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI47" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ47" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -5969,94 +5971,94 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T48" t="n">
         <v>7</v>
       </c>
-      <c r="J48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K48" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M48" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T48" t="n">
-        <v>6.4</v>
-      </c>
       <c r="U48" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="V48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W48" t="n">
         <v>9.5</v>
       </c>
       <c r="X48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y48" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AA48" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="n">
         <v>23</v>
       </c>
-      <c r="AC48" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>24</v>
-      </c>
       <c r="AH48" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AJ48" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -6091,46 +6093,46 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M49" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O49" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="P49" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T49" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="U49" t="n">
         <v>11</v>
@@ -6139,46 +6141,46 @@
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AA49" t="n">
         <v>6.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AD49" t="n">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AE49" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AF49" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG49" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AI49" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ49" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -6582,7 +6584,7 @@
         <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
         <v>3.6</v>
@@ -6623,7 +6625,7 @@
         <v>12</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB53" t="n">
         <v>10.75</v>
@@ -6796,10 +6798,10 @@
         <v>2.05</v>
       </c>
       <c r="J55" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L55" t="n">
         <v>1.2</v>
@@ -6808,10 +6810,10 @@
         <v>4.33</v>
       </c>
       <c r="N55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P55" t="n">
         <v>1.3</v>
@@ -6909,13 +6911,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -6924,16 +6926,16 @@
         <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M56" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N56" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O56" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -6942,61 +6944,61 @@
         <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W56" t="n">
+        <v>67</v>
+      </c>
+      <c r="X56" t="n">
         <v>51</v>
       </c>
-      <c r="X56" t="n">
-        <v>41</v>
-      </c>
       <c r="Y56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z56" t="n">
         <v>11</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD56" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF56" t="n">
         <v>7</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>7.5</v>
       </c>
       <c r="AG56" t="n">
         <v>8.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI56" t="n">
         <v>13</v>
       </c>
       <c r="AJ56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -7259,7 +7261,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H59" t="n">
         <v>3.4</v>
@@ -7286,16 +7288,16 @@
         <v>2.32</v>
       </c>
       <c r="T59" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="U59" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V59" t="n">
         <v>9.75</v>
       </c>
       <c r="W59" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X59" t="n">
         <v>19</v>
@@ -7319,10 +7321,10 @@
         <v>200</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF59" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG59" t="n">
         <v>9.25</v>
@@ -7334,7 +7336,7 @@
         <v>18</v>
       </c>
       <c r="AJ59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -7996,10 +7998,10 @@
         <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P65" t="n">
         <v>1.44</v>
@@ -8350,10 +8352,10 @@
         <v>3.9</v>
       </c>
       <c r="J68" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L68" t="n">
         <v>1.44</v>
@@ -8585,23 +8587,23 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H70" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O70" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P70" t="n">
         <v>1.38</v>
@@ -8612,34 +8614,34 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V70" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="W70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X70" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y70" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB70" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC70" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD70" t="n">
         <v>300</v>
@@ -8648,16 +8650,16 @@
         <v>7.7</v>
       </c>
       <c r="AF70" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG70" t="n">
         <v>9</v>
       </c>
       <c r="AH70" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI70" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ70" t="n">
         <v>27</v>
@@ -8805,23 +8807,23 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I72" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="O72" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="P72" t="n">
         <v>1.38</v>
@@ -8832,10 +8834,10 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="U72" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V72" t="n">
         <v>9.5</v>
@@ -8844,43 +8846,43 @@
         <v>32</v>
       </c>
       <c r="X72" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y72" t="n">
         <v>23</v>
       </c>
-      <c r="Y72" t="n">
-        <v>30</v>
-      </c>
       <c r="Z72" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA72" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB72" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI72" t="n">
         <v>12</v>
       </c>
-      <c r="AC72" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AJ72" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="73">
@@ -9037,13 +9039,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I74" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
         <v>1.02</v>
@@ -9052,10 +9054,10 @@
         <v>21</v>
       </c>
       <c r="L74" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M74" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N74" t="n">
         <v>1.4</v>
@@ -9070,22 +9072,22 @@
         <v>4</v>
       </c>
       <c r="R74" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S74" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T74" t="n">
         <v>10</v>
       </c>
       <c r="U74" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X74" t="n">
         <v>10</v>
@@ -9103,22 +9105,22 @@
         <v>19</v>
       </c>
       <c r="AC74" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD74" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF74" t="n">
         <v>41</v>
       </c>
       <c r="AG74" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH74" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI74" t="n">
         <v>51</v>
@@ -9159,70 +9161,70 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I75" t="n">
         <v>2.7</v>
       </c>
       <c r="J75" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M75" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N75" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O75" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="P75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S75" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U75" t="n">
         <v>13</v>
       </c>
       <c r="V75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
         <v>26</v>
       </c>
       <c r="Z75" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA75" t="n">
         <v>6.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC75" t="n">
         <v>41</v>
@@ -9231,10 +9233,10 @@
         <v>151</v>
       </c>
       <c r="AE75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG75" t="n">
         <v>10</v>
@@ -9246,7 +9248,7 @@
         <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
@@ -9403,13 +9405,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H77" t="n">
         <v>4.33</v>
       </c>
       <c r="I77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
         <v>1.05</v>
@@ -9442,7 +9444,7 @@
         <v>1.62</v>
       </c>
       <c r="T77" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U77" t="n">
         <v>6</v>
@@ -9451,7 +9453,7 @@
         <v>8.5</v>
       </c>
       <c r="W77" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X77" t="n">
         <v>13</v>
@@ -9460,7 +9462,7 @@
         <v>34</v>
       </c>
       <c r="Z77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA77" t="n">
         <v>8.5</v>
@@ -9478,10 +9480,10 @@
         <v>15</v>
       </c>
       <c r="AF77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH77" t="n">
         <v>81</v>
@@ -9525,19 +9527,19 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H78" t="n">
         <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J78" t="n">
         <v>1.02</v>
       </c>
       <c r="K78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L78" t="n">
         <v>1.14</v>
@@ -9597,7 +9599,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF78" t="n">
         <v>17</v>
@@ -9769,25 +9771,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="J80" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M80" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N80" t="n">
         <v>2.7</v>
@@ -9802,25 +9804,25 @@
         <v>2.25</v>
       </c>
       <c r="R80" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S80" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U80" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W80" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y80" t="n">
         <v>51</v>
@@ -9829,29 +9831,29 @@
         <v>6.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC80" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG80" t="n">
         <v>10</v>
       </c>
       <c r="AH80" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ80" t="n">
         <v>41</v>
@@ -10245,13 +10247,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H84" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I84" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
@@ -10278,22 +10280,22 @@
         <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S84" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V84" t="n">
         <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X84" t="n">
         <v>17</v>
@@ -10308,22 +10310,22 @@
         <v>6.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
         <v>51</v>
       </c>
       <c r="AD84" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF84" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH84" t="n">
         <v>41</v>
@@ -10367,25 +10369,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>3.3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L85" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M85" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N85" t="n">
         <v>1.8</v>
@@ -10415,7 +10417,7 @@
         <v>9</v>
       </c>
       <c r="W85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X85" t="n">
         <v>17</v>
@@ -10424,7 +10426,7 @@
         <v>23</v>
       </c>
       <c r="Z85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA85" t="n">
         <v>6.5</v>
@@ -10442,7 +10444,7 @@
         <v>12</v>
       </c>
       <c r="AF85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG85" t="n">
         <v>12</v>
@@ -10451,7 +10453,7 @@
         <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ85" t="n">
         <v>29</v>
@@ -10733,94 +10735,94 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J88" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M88" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="N88" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O88" t="n">
         <v>1.65</v>
       </c>
       <c r="P88" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="R88" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S88" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T88" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U88" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="V88" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W88" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="X88" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y88" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z88" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB88" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC88" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD88" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE88" t="n">
         <v>6.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ88" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -11094,36 +11096,96 @@
           <t>Domzale</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K91" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>25</v>
+      </c>
+      <c r="X91" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11160,43 +11222,43 @@
         <v>3.4</v>
       </c>
       <c r="H92" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J92" t="n">
         <v>1.06</v>
       </c>
       <c r="K92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T92" t="n">
         <v>10</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N92" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P92" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R92" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T92" t="n">
-        <v>9.5</v>
       </c>
       <c r="U92" t="n">
         <v>17</v>
@@ -11211,13 +11273,13 @@
         <v>29</v>
       </c>
       <c r="Y92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z92" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB92" t="n">
         <v>15</v>
@@ -11226,13 +11288,13 @@
         <v>51</v>
       </c>
       <c r="AD92" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG92" t="n">
         <v>9</v>
@@ -11241,7 +11303,7 @@
         <v>19</v>
       </c>
       <c r="AI92" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ92" t="n">
         <v>29</v>
@@ -11532,10 +11594,10 @@
         <v>3.4</v>
       </c>
       <c r="J95" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L95" t="n">
         <v>1.36</v>
@@ -11645,37 +11707,37 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H96" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K96" t="n">
+        <v>13</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P96" t="n">
         <v>1.33</v>
       </c>
-      <c r="J96" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K96" t="n">
-        <v>15</v>
-      </c>
-      <c r="L96" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M96" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O96" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P96" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Q96" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R96" t="n">
         <v>2</v>
@@ -11684,13 +11746,13 @@
         <v>1.73</v>
       </c>
       <c r="T96" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U96" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V96" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W96" t="n">
         <v>81</v>
@@ -11702,10 +11764,10 @@
         <v>51</v>
       </c>
       <c r="Z96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA96" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB96" t="n">
         <v>21</v>
@@ -11723,10 +11785,10 @@
         <v>6.5</v>
       </c>
       <c r="AG96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH96" t="n">
         <v>9</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>8.5</v>
       </c>
       <c r="AI96" t="n">
         <v>12</v>
@@ -11767,19 +11829,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H97" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I97" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J97" t="n">
         <v>1.04</v>
       </c>
       <c r="K97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -11788,28 +11850,28 @@
         <v>3.75</v>
       </c>
       <c r="N97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
         <v>1.8</v>
       </c>
-      <c r="O97" t="n">
-        <v>2</v>
-      </c>
-      <c r="P97" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R97" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S97" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T97" t="n">
         <v>7.5</v>
       </c>
       <c r="U97" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
@@ -11818,10 +11880,10 @@
         <v>15</v>
       </c>
       <c r="X97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z97" t="n">
         <v>12</v>
@@ -11839,13 +11901,13 @@
         <v>201</v>
       </c>
       <c r="AE97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG97" t="n">
         <v>13</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>15</v>
       </c>
       <c r="AH97" t="n">
         <v>41</v>
@@ -11889,37 +11951,37 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I98" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J98" t="n">
         <v>1.03</v>
       </c>
       <c r="K98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L98" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M98" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N98" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O98" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q98" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R98" t="n">
         <v>2</v>
@@ -11934,46 +11996,46 @@
         <v>6.5</v>
       </c>
       <c r="V98" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W98" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
       </c>
       <c r="Y98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z98" t="n">
         <v>15</v>
       </c>
       <c r="AA98" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB98" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC98" t="n">
         <v>67</v>
       </c>
       <c r="AD98" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AE98" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF98" t="n">
         <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH98" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI98" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ98" t="n">
         <v>51</v>
@@ -12011,37 +12073,37 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I99" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M99" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O99" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="P99" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q99" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R99" t="n">
         <v>1.62</v>
@@ -12050,10 +12112,10 @@
         <v>2.2</v>
       </c>
       <c r="T99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U99" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V99" t="n">
         <v>17</v>
@@ -12062,28 +12124,28 @@
         <v>51</v>
       </c>
       <c r="X99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y99" t="n">
         <v>34</v>
       </c>
       <c r="Z99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC99" t="n">
         <v>41</v>
       </c>
       <c r="AD99" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF99" t="n">
         <v>9</v>
@@ -12092,10 +12154,10 @@
         <v>8.5</v>
       </c>
       <c r="AH99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI99" t="n">
         <v>12</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>11</v>
       </c>
       <c r="AJ99" t="n">
         <v>21</v>
@@ -12497,19 +12559,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H103" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J103" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L103" t="n">
         <v>1.44</v>
@@ -12567,10 +12629,10 @@
       </c>
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG103" t="n">
         <v>21</v>
@@ -12739,46 +12801,46 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H105" t="n">
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L105" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M105" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
         <v>1.5</v>
       </c>
-      <c r="O105" t="n">
+      <c r="S105" t="n">
         <v>2.5</v>
       </c>
-      <c r="P105" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R105" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S105" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U105" t="n">
         <v>10</v>
@@ -12796,13 +12858,13 @@
         <v>19</v>
       </c>
       <c r="Z105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA105" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC105" t="n">
         <v>34</v>
@@ -12986,10 +13048,10 @@
         <v>2.05</v>
       </c>
       <c r="H107" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I107" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J107" t="n">
         <v>1.07</v>
@@ -13016,13 +13078,13 @@
         <v>2.55</v>
       </c>
       <c r="R107" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S107" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T107" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U107" t="n">
         <v>9.25</v>
@@ -13037,7 +13099,7 @@
         <v>17</v>
       </c>
       <c r="Y107" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z107" t="n">
         <v>6.8</v>
@@ -13055,7 +13117,7 @@
         <v>600</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF107" t="n">
         <v>18</v>
@@ -13114,13 +13176,13 @@
         <v>2.6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K108" t="n">
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -13236,13 +13298,13 @@
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K109" t="n">
         <v>11</v>
       </c>
       <c r="L109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M109" t="n">
         <v>3.5</v>
@@ -13358,13 +13420,13 @@
         <v>5.25</v>
       </c>
       <c r="J110" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K110" t="n">
         <v>17</v>
       </c>
       <c r="L110" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
@@ -13480,13 +13542,13 @@
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K111" t="n">
         <v>13</v>
       </c>
       <c r="L111" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -13602,22 +13664,22 @@
         <v>2.5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K112" t="n">
         <v>10</v>
       </c>
       <c r="L112" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M112" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N112" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O112" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P112" t="n">
         <v>1.44</v>
@@ -13837,13 +13899,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
         <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J114" t="n">
         <v>1.06</v>
@@ -13876,13 +13938,13 @@
         <v>1.95</v>
       </c>
       <c r="T114" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U114" t="n">
         <v>13</v>
       </c>
       <c r="V114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W114" t="n">
         <v>29</v>
@@ -13915,7 +13977,7 @@
         <v>12</v>
       </c>
       <c r="AG114" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH114" t="n">
         <v>23</v>
@@ -14203,22 +14265,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I117" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J117" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K117" t="n">
         <v>17</v>
       </c>
       <c r="L117" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
@@ -14236,16 +14298,16 @@
         <v>3.75</v>
       </c>
       <c r="R117" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S117" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T117" t="n">
         <v>9.5</v>
       </c>
       <c r="U117" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V117" t="n">
         <v>8.5</v>
@@ -14278,7 +14340,7 @@
         <v>19</v>
       </c>
       <c r="AF117" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG117" t="n">
         <v>17</v>
@@ -14287,7 +14349,7 @@
         <v>51</v>
       </c>
       <c r="AI117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ117" t="n">
         <v>34</v>
@@ -14324,36 +14386,92 @@
           <t>Kudrivka-Nyva</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I118" t="n">
+        <v>5.4</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
-      <c r="AF118" t="inlineStr"/>
-      <c r="AG118" t="inlineStr"/>
-      <c r="AH118" t="inlineStr"/>
-      <c r="AI118" t="inlineStr"/>
-      <c r="AJ118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T118" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>8</v>
+      </c>
+      <c r="W118" t="n">
+        <v>11</v>
+      </c>
+      <c r="X118" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14386,36 +14504,92 @@
           <t>Livyi Bereg</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="G119" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.52</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
-      <c r="AF119" t="inlineStr"/>
-      <c r="AG119" t="inlineStr"/>
-      <c r="AH119" t="inlineStr"/>
-      <c r="AI119" t="inlineStr"/>
-      <c r="AJ119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W119" t="n">
+        <v>27</v>
+      </c>
+      <c r="X119" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14574,10 +14748,10 @@
         <v>5</v>
       </c>
       <c r="H121" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I121" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J121" t="n">
         <v>1.04</v>
@@ -14586,16 +14760,16 @@
         <v>13</v>
       </c>
       <c r="L121" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M121" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N121" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O121" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P121" t="n">
         <v>1.33</v>
@@ -14604,10 +14778,10 @@
         <v>3.25</v>
       </c>
       <c r="R121" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S121" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T121" t="n">
         <v>15</v>
@@ -14616,7 +14790,7 @@
         <v>26</v>
       </c>
       <c r="V121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W121" t="n">
         <v>51</v>
@@ -14628,7 +14802,7 @@
         <v>41</v>
       </c>
       <c r="Z121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA121" t="n">
         <v>7.5</v>
@@ -14640,10 +14814,10 @@
         <v>51</v>
       </c>
       <c r="AD121" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE121" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF121" t="n">
         <v>8</v>
@@ -14658,7 +14832,7 @@
         <v>13</v>
       </c>
       <c r="AJ121" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -14933,42 +15107,42 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H124" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M124" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="N124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S124" t="n">
         <v>1.98</v>
       </c>
-      <c r="O124" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P124" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R124" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S124" t="n">
-        <v>1.87</v>
-      </c>
       <c r="T124" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U124" t="n">
         <v>11.25</v>
@@ -14977,46 +15151,46 @@
         <v>9</v>
       </c>
       <c r="W124" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X124" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z124" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA124" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AB124" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC124" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD124" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE124" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF124" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG124" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH124" t="n">
         <v>37</v>
       </c>
       <c r="AI124" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AJ124" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
@@ -15066,16 +15240,16 @@
         <v>11</v>
       </c>
       <c r="L125" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M125" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N125" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O125" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P125" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -689,7 +689,7 @@
         <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>1.14</v>
@@ -928,7 +928,7 @@
         <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U4" t="n">
         <v>8.5</v>
@@ -937,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N5" t="n">
         <v>2.88</v>
@@ -1048,16 +1048,16 @@
         <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V5" t="n">
         <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1066,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
         <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>1.17</v>
@@ -1150,16 +1150,16 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>2.63</v>
@@ -1171,16 +1171,16 @@
         <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>12</v>
       </c>
       <c r="W6" t="n">
+        <v>26</v>
+      </c>
+      <c r="X6" t="n">
         <v>29</v>
-      </c>
-      <c r="X6" t="n">
-        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1195,14 +1195,14 @@
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
         <v>6</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1211,7 +1211,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1258,10 +1258,10 @@
         <v>2.1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1282,10 +1282,10 @@
         <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>8</v>
@@ -1306,7 +1306,7 @@
         <v>51</v>
       </c>
       <c r="Z7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1489,19 +1489,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1516,10 +1516,10 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>2.63</v>
@@ -1528,19 +1528,19 @@
         <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U9" t="n">
         <v>6</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1549,20 +1549,20 @@
         <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
         <v>23</v>
@@ -1609,19 +1609,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.53</v>
@@ -1648,25 +1648,25 @@
         <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1682,19 +1682,19 @@
         <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
         <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1855,7 +1855,7 @@
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.13</v>
@@ -1894,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="V12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" t="n">
         <v>21</v>
@@ -1906,7 +1906,7 @@
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
         <v>6</v>
@@ -1924,16 +1924,16 @@
         <v>7.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
         <v>51</v>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2031,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
         <v>13</v>
@@ -2049,16 +2049,16 @@
         <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2645,13 +2645,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>1.1</v>
@@ -2687,7 +2687,7 @@
         <v>6.5</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
         <v>10</v>
@@ -3032,10 +3032,10 @@
         <v>3.75</v>
       </c>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P23" t="n">
         <v>1.36</v>
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3166,13 +3166,13 @@
         <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>13</v>
@@ -3190,31 +3190,31 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
         <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3375,13 +3375,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
         <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J26" t="n">
         <v>1.1</v>
@@ -3420,13 +3420,13 @@
         <v>9.75</v>
       </c>
       <c r="V26" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
         <v>40</v>
@@ -3435,25 +3435,25 @@
         <v>5.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="n">
         <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
         <v>40</v>
@@ -3497,31 +3497,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K27" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.42</v>
       </c>
       <c r="M27" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P27" t="n">
         <v>1.47</v>
@@ -3536,55 +3536,55 @@
         <v>1.72</v>
       </c>
       <c r="T27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U27" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
         <v>35</v>
       </c>
       <c r="Z27" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
         <v>100</v>
       </c>
       <c r="AD27" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="n">
         <v>50</v>
       </c>
       <c r="AJ27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -3619,82 +3619,82 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K28" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="N28" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T28" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="U28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z28" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD28" t="n">
         <v>900</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
@@ -3741,19 +3741,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
         <v>1.09</v>
       </c>
       <c r="K29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.4</v>
@@ -3768,67 +3768,67 @@
         <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U29" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="V29" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG29" t="n">
         <v>15.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>90</v>
       </c>
       <c r="AI29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -3896,10 +3896,10 @@
         <v>2.67</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T30" t="n">
         <v>9.25</v>
@@ -3932,7 +3932,7 @@
         <v>60</v>
       </c>
       <c r="AD30" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE30" t="n">
         <v>8.25</v>
@@ -3947,7 +3947,7 @@
         <v>27</v>
       </c>
       <c r="AI30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="n">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J34" t="n">
         <v>1.1</v>
@@ -4390,7 +4390,7 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="U34" t="n">
         <v>15.5</v>
@@ -4402,7 +4402,7 @@
         <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y34" t="n">
         <v>50</v>
@@ -4414,7 +4414,7 @@
         <v>6.3</v>
       </c>
       <c r="AB34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC34" t="n">
         <v>110</v>
@@ -4423,10 +4423,10 @@
         <v>1250</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG34" t="n">
         <v>10.25</v>
@@ -4438,7 +4438,7 @@
         <v>24</v>
       </c>
       <c r="AJ34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -4717,88 +4717,90 @@
         </is>
       </c>
       <c r="G37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.35</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.05</v>
-      </c>
       <c r="I37" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="N37" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="R37" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U37" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="V37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X37" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y37" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.7</v>
+        <v>8.25</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD37" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>900</v>
+      </c>
       <c r="AE37" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="AF37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG37" t="n">
         <v>8.75</v>
       </c>
-      <c r="AG37" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -4833,86 +4835,86 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N38" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S38" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T38" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="U38" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="V38" t="n">
         <v>8</v>
       </c>
       <c r="W38" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG38" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5314,13 +5316,13 @@
         <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M42" t="n">
         <v>3.4</v>
@@ -5332,7 +5334,7 @@
         <v>1.83</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q42" t="n">
         <v>2.75</v>
@@ -5462,7 +5464,7 @@
         <v>1.88</v>
       </c>
       <c r="T43" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U43" t="n">
         <v>11.5</v>
@@ -5474,7 +5476,7 @@
         <v>24</v>
       </c>
       <c r="X43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="n">
         <v>29</v>
@@ -5486,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC43" t="n">
         <v>65</v>
@@ -5504,7 +5506,7 @@
         <v>10.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI43" t="n">
         <v>28</v>
@@ -5544,36 +5546,90 @@
           <t>Cucuta</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V44" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W44" t="n">
+        <v>16</v>
+      </c>
+      <c r="X44" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>110</v>
+      </c>
       <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="AE44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5607,13 +5663,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J45" t="n">
         <v>1.05</v>
@@ -5628,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O45" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5646,55 +5702,55 @@
         <v>1.8</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U45" t="n">
         <v>9.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
         <v>51</v>
       </c>
       <c r="AD45" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="AE45" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
         <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="n">
         <v>29</v>
       </c>
       <c r="AJ45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6102,10 +6158,10 @@
         <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
         <v>1.25</v>
@@ -6114,10 +6170,10 @@
         <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>1.36</v>
@@ -6584,7 +6640,7 @@
         <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I53" t="n">
         <v>3.6</v>
@@ -6594,17 +6650,17 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O53" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U53" t="n">
         <v>8.5</v>
@@ -6625,7 +6681,7 @@
         <v>12</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB53" t="n">
         <v>10.75</v>
@@ -7151,23 +7207,23 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="H58" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="I58" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -7175,7 +7231,7 @@
         <v>1.33</v>
       </c>
       <c r="S58" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T58" t="n">
         <v>26</v>
@@ -7184,46 +7240,46 @@
         <v>35</v>
       </c>
       <c r="V58" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W58" t="n">
         <v>70</v>
       </c>
       <c r="X58" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z58" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC58" t="n">
         <v>27</v>
       </c>
-      <c r="AA58" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>26</v>
-      </c>
       <c r="AD58" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF58" t="n">
         <v>13.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH58" t="n">
         <v>17</v>
       </c>
       <c r="AI58" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ58" t="n">
         <v>14.5</v>
@@ -7264,7 +7320,7 @@
         <v>2.57</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I59" t="n">
         <v>2.45</v>
@@ -7274,24 +7330,24 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O59" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S59" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="T59" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U59" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V59" t="n">
         <v>9.75</v>
@@ -7300,40 +7356,40 @@
         <v>30</v>
       </c>
       <c r="X59" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z59" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB59" t="n">
         <v>11</v>
       </c>
       <c r="AC59" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD59" t="n">
         <v>200</v>
       </c>
       <c r="AE59" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF59" t="n">
         <v>15</v>
       </c>
       <c r="AG59" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH59" t="n">
         <v>28</v>
       </c>
       <c r="AI59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ59" t="n">
         <v>21</v>
@@ -7489,46 +7545,46 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
       </c>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L61" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M61" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="N61" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O61" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="P61" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R61" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S61" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="T61" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U61" t="n">
         <v>15.5</v>
@@ -7537,46 +7593,46 @@
         <v>9.25</v>
       </c>
       <c r="W61" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X61" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD61" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE61" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH61" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI61" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -7733,13 +7789,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="I63" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="J63" t="n">
         <v>1.03</v>
@@ -7748,55 +7804,55 @@
         <v>9.25</v>
       </c>
       <c r="L63" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M63" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="N63" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O63" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="P63" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R63" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S63" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T63" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="U63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V63" t="n">
         <v>8.25</v>
       </c>
       <c r="W63" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="X63" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y63" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z63" t="n">
         <v>9.25</v>
       </c>
       <c r="AA63" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB63" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC63" t="n">
         <v>40</v>
@@ -7805,22 +7861,22 @@
         <v>200</v>
       </c>
       <c r="AE63" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF63" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI63" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>30</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -7989,7 +8045,7 @@
         <v>1.07</v>
       </c>
       <c r="K65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L65" t="n">
         <v>1.36</v>
@@ -8010,13 +8066,13 @@
         <v>2.63</v>
       </c>
       <c r="R65" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S65" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U65" t="n">
         <v>11</v>
@@ -8046,25 +8102,25 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE65" t="n">
         <v>8.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG65" t="n">
         <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI65" t="n">
         <v>26</v>
       </c>
       <c r="AJ65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -8111,19 +8167,19 @@
         <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P66" t="n">
         <v>1.33</v>
@@ -8153,13 +8209,13 @@
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z66" t="n">
         <v>12</v>
       </c>
       <c r="AA66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB66" t="n">
         <v>13</v>
@@ -8171,7 +8227,7 @@
         <v>151</v>
       </c>
       <c r="AE66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF66" t="n">
         <v>15</v>
@@ -8697,20 +8753,20 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O71" t="n">
         <v>1.7</v>
@@ -8727,52 +8783,52 @@
         <v>5.3</v>
       </c>
       <c r="U71" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="V71" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W71" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="X71" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y71" t="n">
         <v>23</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA71" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB71" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD71" t="n">
         <v>500</v>
       </c>
       <c r="AE71" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF71" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG71" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI71" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ71" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -8807,7 +8863,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H72" t="n">
         <v>3.5</v>
@@ -8834,7 +8890,7 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U72" t="n">
         <v>15</v>
@@ -8852,7 +8908,7 @@
         <v>23</v>
       </c>
       <c r="Z72" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA72" t="n">
         <v>6.2</v>
@@ -8861,28 +8917,28 @@
         <v>10.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD72" t="n">
         <v>200</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AF72" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG72" t="n">
         <v>7.3</v>
       </c>
       <c r="AH72" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI72" t="n">
         <v>12</v>
       </c>
       <c r="AJ72" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -9289,7 +9345,7 @@
         <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J76" t="n">
         <v>1.02</v>
@@ -9328,7 +9384,7 @@
         <v>51</v>
       </c>
       <c r="V76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W76" t="n">
         <v>151</v>
@@ -9358,10 +9414,10 @@
         <v>10</v>
       </c>
       <c r="AF76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH76" t="n">
         <v>8.5</v>
@@ -9370,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="AJ76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -9539,13 +9595,13 @@
         <v>1.02</v>
       </c>
       <c r="K78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L78" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M78" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
         <v>1.48</v>
@@ -9771,13 +9827,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="H80" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I80" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="J80" t="n">
         <v>1.11</v>
@@ -9810,22 +9866,22 @@
         <v>1.57</v>
       </c>
       <c r="T80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U80" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V80" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W80" t="n">
+        <v>29</v>
+      </c>
+      <c r="X80" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y80" t="n">
         <v>41</v>
-      </c>
-      <c r="X80" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>51</v>
       </c>
       <c r="Z80" t="n">
         <v>6.5</v>
@@ -9841,19 +9897,19 @@
       </c>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH80" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI80" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ80" t="n">
         <v>41</v>
@@ -9891,13 +9947,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H81" t="n">
         <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J81" t="n">
         <v>1.07</v>
@@ -9933,7 +9989,7 @@
         <v>7</v>
       </c>
       <c r="U81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V81" t="n">
         <v>9.5</v>
@@ -9975,7 +10031,7 @@
         <v>34</v>
       </c>
       <c r="AI81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ81" t="n">
         <v>41</v>
@@ -10369,7 +10425,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H85" t="n">
         <v>3.3</v>
@@ -10378,16 +10434,16 @@
         <v>3.3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L85" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M85" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
         <v>1.8</v>
@@ -10426,7 +10482,7 @@
         <v>23</v>
       </c>
       <c r="Z85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA85" t="n">
         <v>6.5</v>
@@ -10453,7 +10509,7 @@
         <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ85" t="n">
         <v>29</v>
@@ -10619,13 +10675,13 @@
         <v>3.1</v>
       </c>
       <c r="I87" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J87" t="n">
         <v>1.07</v>
       </c>
       <c r="K87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L87" t="n">
         <v>1.33</v>
@@ -10634,16 +10690,16 @@
         <v>3.25</v>
       </c>
       <c r="N87" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O87" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P87" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R87" t="n">
         <v>1.83</v>
@@ -10670,7 +10726,7 @@
         <v>29</v>
       </c>
       <c r="Z87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA87" t="n">
         <v>6.5</v>
@@ -10857,13 +10913,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H89" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I89" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="J89" t="n">
         <v>1.07</v>
@@ -10887,62 +10943,62 @@
         <v>1.44</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R89" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="S89" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T89" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="U89" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="V89" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W89" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="X89" t="n">
         <v>13.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z89" t="n">
         <v>7</v>
       </c>
       <c r="AA89" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC89" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG89" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH89" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI89" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ89" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -11231,7 +11287,7 @@
         <v>1.06</v>
       </c>
       <c r="K92" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L92" t="n">
         <v>1.3</v>
@@ -11829,13 +11885,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H97" t="n">
         <v>3.6</v>
       </c>
       <c r="I97" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
         <v>1.04</v>
@@ -11871,7 +11927,7 @@
         <v>7.5</v>
       </c>
       <c r="U97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V97" t="n">
         <v>8.5</v>
@@ -11889,7 +11945,7 @@
         <v>12</v>
       </c>
       <c r="AA97" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB97" t="n">
         <v>15</v>
@@ -11901,13 +11957,13 @@
         <v>201</v>
       </c>
       <c r="AE97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF97" t="n">
         <v>21</v>
       </c>
       <c r="AG97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH97" t="n">
         <v>41</v>
@@ -11951,7 +12007,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>5.5</v>
@@ -11990,16 +12046,16 @@
         <v>1.73</v>
       </c>
       <c r="T98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U98" t="n">
         <v>6.5</v>
       </c>
       <c r="V98" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W98" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
@@ -12029,7 +12085,7 @@
         <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH98" t="n">
         <v>101</v>
@@ -12085,7 +12141,7 @@
         <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L99" t="n">
         <v>1.17</v>
@@ -12195,31 +12251,31 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="H100" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I100" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="J100" t="n">
         <v>1.03</v>
       </c>
       <c r="K100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L100" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M100" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N100" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O100" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P100" t="n">
         <v>1.29</v>
@@ -12228,59 +12284,59 @@
         <v>3.5</v>
       </c>
       <c r="R100" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S100" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T100" t="n">
+        <v>21</v>
+      </c>
+      <c r="U100" t="n">
+        <v>41</v>
+      </c>
+      <c r="V100" t="n">
         <v>26</v>
       </c>
-      <c r="U100" t="n">
+      <c r="W100" t="n">
+        <v>126</v>
+      </c>
+      <c r="X100" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y100" t="n">
         <v>51</v>
-      </c>
-      <c r="V100" t="n">
-        <v>34</v>
-      </c>
-      <c r="W100" t="n">
-        <v>151</v>
-      </c>
-      <c r="X100" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>67</v>
       </c>
       <c r="Z100" t="n">
         <v>15</v>
       </c>
       <c r="AA100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB100" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC100" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="n">
         <v>7.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ100" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -12679,13 +12735,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H104" t="n">
         <v>3.6</v>
       </c>
       <c r="I104" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J104" t="n">
         <v>1.03</v>
@@ -12694,16 +12750,16 @@
         <v>15</v>
       </c>
       <c r="L104" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M104" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N104" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O104" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P104" t="n">
         <v>1.29</v>
@@ -12721,28 +12777,28 @@
         <v>12</v>
       </c>
       <c r="U104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W104" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X104" t="n">
         <v>19</v>
       </c>
       <c r="Y104" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA104" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC104" t="n">
         <v>34</v>
@@ -12751,19 +12807,19 @@
         <v>101</v>
       </c>
       <c r="AE104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF104" t="n">
         <v>15</v>
       </c>
       <c r="AG104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI104" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ104" t="n">
         <v>21</v>
@@ -12816,10 +12872,10 @@
         <v>19</v>
       </c>
       <c r="L105" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M105" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N105" t="n">
         <v>1.48</v>
@@ -12956,7 +13012,7 @@
         <v>2.5</v>
       </c>
       <c r="R106" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S106" t="n">
         <v>1.75</v>
@@ -12971,7 +13027,7 @@
         <v>8.5</v>
       </c>
       <c r="W106" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X106" t="n">
         <v>16</v>
@@ -12998,7 +13054,7 @@
         <v>10</v>
       </c>
       <c r="AF106" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG106" t="n">
         <v>14</v>
@@ -13078,7 +13134,7 @@
         <v>2.55</v>
       </c>
       <c r="R107" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S107" t="n">
         <v>1.88</v>
@@ -13176,13 +13232,13 @@
         <v>2.6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K108" t="n">
         <v>13</v>
       </c>
       <c r="L108" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
@@ -13298,13 +13354,13 @@
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K109" t="n">
         <v>11</v>
       </c>
       <c r="L109" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M109" t="n">
         <v>3.5</v>
@@ -13420,13 +13476,13 @@
         <v>5.25</v>
       </c>
       <c r="J110" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K110" t="n">
         <v>17</v>
       </c>
       <c r="L110" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
@@ -13542,13 +13598,13 @@
         <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K111" t="n">
         <v>13</v>
       </c>
       <c r="L111" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -13655,22 +13711,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H112" t="n">
         <v>3.3</v>
       </c>
       <c r="I112" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J112" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L112" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M112" t="n">
         <v>3.25</v>
@@ -13688,10 +13744,10 @@
         <v>2.63</v>
       </c>
       <c r="R112" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S112" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T112" t="n">
         <v>8.5</v>
@@ -13712,10 +13768,10 @@
         <v>34</v>
       </c>
       <c r="Z112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB112" t="n">
         <v>15</v>
@@ -13730,10 +13786,10 @@
         <v>7.5</v>
       </c>
       <c r="AF112" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH112" t="n">
         <v>23</v>
@@ -13742,7 +13798,7 @@
         <v>21</v>
       </c>
       <c r="AJ112" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -13908,10 +13964,10 @@
         <v>2.4</v>
       </c>
       <c r="J114" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L114" t="n">
         <v>1.3</v>
@@ -13920,10 +13976,10 @@
         <v>3.4</v>
       </c>
       <c r="N114" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O114" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P114" t="n">
         <v>1.4</v>
@@ -14042,10 +14098,10 @@
         <v>3.5</v>
       </c>
       <c r="N115" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O115" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P115" t="n">
         <v>1.4</v>
@@ -14274,16 +14330,16 @@
         <v>5.75</v>
       </c>
       <c r="J117" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K117" t="n">
         <v>17</v>
       </c>
       <c r="L117" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M117" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N117" t="n">
         <v>1.53</v>
@@ -14387,10 +14443,10 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H118" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I118" t="n">
         <v>5.4</v>
@@ -14398,16 +14454,16 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M118" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="N118" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O118" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="P118" t="n">
         <v>1.39</v>
@@ -14416,16 +14472,16 @@
         <v>2.57</v>
       </c>
       <c r="R118" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S118" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T118" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="U118" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="V118" t="n">
         <v>8</v>
@@ -14434,31 +14490,31 @@
         <v>11</v>
       </c>
       <c r="X118" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y118" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z118" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB118" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC118" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD118" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF118" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG118" t="n">
         <v>17</v>
@@ -14467,10 +14523,10 @@
         <v>100</v>
       </c>
       <c r="AI118" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ118" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119">
@@ -14505,90 +14561,90 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H119" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I119" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M119" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N119" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="O119" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P119" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R119" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S119" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U119" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V119" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W119" t="n">
         <v>27</v>
       </c>
       <c r="X119" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y119" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z119" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA119" t="n">
         <v>6.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC119" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD119" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE119" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF119" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG119" t="n">
         <v>9.75</v>
       </c>
       <c r="AH119" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI119" t="n">
         <v>21</v>
       </c>
       <c r="AJ119" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
@@ -14745,13 +14801,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H121" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I121" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J121" t="n">
         <v>1.04</v>
@@ -14772,10 +14828,10 @@
         <v>1.98</v>
       </c>
       <c r="P121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q121" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R121" t="n">
         <v>1.8</v>
@@ -14784,13 +14840,13 @@
         <v>1.91</v>
       </c>
       <c r="T121" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U121" t="n">
         <v>26</v>
       </c>
       <c r="V121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W121" t="n">
         <v>51</v>
@@ -14802,13 +14858,13 @@
         <v>41</v>
       </c>
       <c r="Z121" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA121" t="n">
         <v>7.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC121" t="n">
         <v>51</v>
@@ -14826,7 +14882,7 @@
         <v>8.5</v>
       </c>
       <c r="AH121" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI121" t="n">
         <v>13</v>
@@ -15240,16 +15296,16 @@
         <v>11</v>
       </c>
       <c r="L125" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M125" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N125" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O125" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P125" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H24" t="n">
         <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3172,10 +3172,10 @@
         <v>1.7</v>
       </c>
       <c r="T24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V24" t="n">
         <v>12</v>
@@ -3205,16 +3205,16 @@
         <v>451</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>1.1</v>
@@ -3282,16 +3282,16 @@
         <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
         <v>5.5</v>
@@ -3300,10 +3300,10 @@
         <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
         <v>19</v>
@@ -3318,7 +3318,7 @@
         <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>81</v>
@@ -3328,13 +3328,13 @@
         <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
@@ -3619,46 +3619,46 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
         <v>1.09</v>
       </c>
       <c r="K28" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="N28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P28" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U28" t="n">
         <v>8.75</v>
@@ -3670,13 +3670,13 @@
         <v>18</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA28" t="n">
         <v>6.1</v>
@@ -3688,19 +3688,19 @@
         <v>90</v>
       </c>
       <c r="AD28" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE28" t="n">
         <v>9.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG28" t="n">
         <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI28" t="n">
         <v>40</v>
@@ -3741,13 +3741,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J29" t="n">
         <v>1.09</v>
@@ -3759,10 +3759,10 @@
         <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="N29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O29" t="n">
         <v>1.62</v>
@@ -3780,19 +3780,19 @@
         <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y29" t="n">
         <v>35</v>
@@ -3801,7 +3801,7 @@
         <v>6.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -3813,16 +3813,16 @@
         <v>900</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="n">
         <v>50</v>
@@ -4746,10 +4746,10 @@
         <v>2.45</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S37" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T37" t="n">
         <v>9</v>
@@ -4835,10 +4835,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="I38" t="n">
         <v>5.7</v>
@@ -4849,57 +4849,57 @@
         <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="O38" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>7.1</v>
+        <v>8.75</v>
       </c>
       <c r="U38" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="V38" t="n">
         <v>8</v>
       </c>
       <c r="W38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AD38" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE38" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF38" t="n">
         <v>37</v>
@@ -4908,13 +4908,13 @@
         <v>18</v>
       </c>
       <c r="AH38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI38" t="n">
         <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -5316,13 +5316,13 @@
         <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
         <v>3.4</v>
@@ -5334,7 +5334,7 @@
         <v>1.83</v>
       </c>
       <c r="P42" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
         <v>2.75</v>
@@ -5429,7 +5429,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3.05</v>
@@ -5440,64 +5440,64 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M43" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N43" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P43" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R43" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S43" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="U43" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA43" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB43" t="n">
         <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF43" t="n">
         <v>15</v>
@@ -5506,7 +5506,7 @@
         <v>10.75</v>
       </c>
       <c r="AH43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="n">
         <v>28</v>
@@ -5547,13 +5547,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H44" t="n">
         <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5561,74 +5561,74 @@
         <v>1.42</v>
       </c>
       <c r="M44" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N44" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O44" t="n">
         <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S44" t="n">
         <v>1.65</v>
       </c>
       <c r="T44" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U44" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="V44" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X44" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y44" t="n">
         <v>37</v>
       </c>
       <c r="Z44" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC44" t="n">
         <v>110</v>
       </c>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG44" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI44" t="n">
         <v>45</v>
       </c>
       <c r="AJ44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -5663,13 +5663,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>1.05</v>
@@ -5684,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="O45" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5705,52 +5705,52 @@
         <v>8</v>
       </c>
       <c r="U45" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W45" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
         <v>51</v>
       </c>
       <c r="AD45" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI45" t="n">
         <v>41</v>
       </c>
-      <c r="AI45" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -5947,7 +5947,7 @@
         <v>11</v>
       </c>
       <c r="U47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V47" t="n">
         <v>12</v>
@@ -5956,7 +5956,7 @@
         <v>41</v>
       </c>
       <c r="X47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y47" t="n">
         <v>34</v>
@@ -5971,7 +5971,7 @@
         <v>15</v>
       </c>
       <c r="AC47" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD47" t="n">
         <v>201</v>
@@ -6036,13 +6036,13 @@
         <v>7.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
         <v>12</v>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -6149,13 +6149,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -6182,16 +6182,16 @@
         <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T49" t="n">
         <v>8.5</v>
       </c>
       <c r="U49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
@@ -6200,7 +6200,7 @@
         <v>19</v>
       </c>
       <c r="X49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y49" t="n">
         <v>23</v>
@@ -7089,45 +7089,45 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="H57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I57" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.35</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M57" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="N57" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="O57" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P57" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q57" t="n">
         <v>2.55</v>
       </c>
       <c r="R57" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S57" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T57" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U57" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V57" t="n">
         <v>9</v>
@@ -7136,31 +7136,31 @@
         <v>18.5</v>
       </c>
       <c r="X57" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z57" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA57" t="n">
         <v>6.4</v>
       </c>
       <c r="AB57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC57" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD57" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG57" t="n">
         <v>12</v>
@@ -7207,13 +7207,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="H58" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="I58" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -7228,10 +7228,10 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S58" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="T58" t="n">
         <v>26</v>
@@ -7240,16 +7240,16 @@
         <v>35</v>
       </c>
       <c r="V58" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W58" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X58" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z58" t="n">
         <v>28</v>
@@ -7258,28 +7258,28 @@
         <v>10.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD58" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE58" t="n">
         <v>16</v>
       </c>
       <c r="AF58" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG58" t="n">
         <v>9.25</v>
       </c>
       <c r="AH58" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ58" t="n">
         <v>14.5</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="H61" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>2.82</v>
+        <v>2.47</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7575,64 +7575,64 @@
         <v>1.28</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R61" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S61" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="T61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U61" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="V61" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W61" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="X61" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y61" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="n">
         <v>9.25</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC61" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD61" t="n">
         <v>150</v>
       </c>
       <c r="AE61" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF61" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AI61" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>2.67</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="J64" t="n">
         <v>1.03</v>
@@ -7950,28 +7950,28 @@
         <v>2.8</v>
       </c>
       <c r="T64" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="U64" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V64" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="W64" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="X64" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z64" t="n">
         <v>9.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB64" t="n">
         <v>10.25</v>
@@ -7983,22 +7983,22 @@
         <v>120</v>
       </c>
       <c r="AE64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF64" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AI64" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -8033,31 +8033,31 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M65" t="n">
         <v>3.25</v>
       </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K65" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3</v>
-      </c>
       <c r="N65" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O65" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P65" t="n">
         <v>1.44</v>
@@ -8066,10 +8066,10 @@
         <v>2.63</v>
       </c>
       <c r="R65" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S65" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T65" t="n">
         <v>7.5</v>
@@ -8078,7 +8078,7 @@
         <v>11</v>
       </c>
       <c r="V65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W65" t="n">
         <v>23</v>
@@ -8087,13 +8087,13 @@
         <v>21</v>
       </c>
       <c r="Y65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA65" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB65" t="n">
         <v>15</v>
@@ -8108,7 +8108,7 @@
         <v>8.5</v>
       </c>
       <c r="AF65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG65" t="n">
         <v>11</v>
@@ -8117,7 +8117,7 @@
         <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -8176,10 +8176,10 @@
         <v>4</v>
       </c>
       <c r="N66" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O66" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P66" t="n">
         <v>1.33</v>
@@ -8399,13 +8399,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>3.1</v>
       </c>
       <c r="I68" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J68" t="n">
         <v>1.1</v>
@@ -8438,19 +8438,19 @@
         <v>1.67</v>
       </c>
       <c r="T68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V68" t="n">
         <v>9.5</v>
       </c>
       <c r="W68" t="n">
+        <v>17</v>
+      </c>
+      <c r="X68" t="n">
         <v>19</v>
-      </c>
-      <c r="X68" t="n">
-        <v>21</v>
       </c>
       <c r="Y68" t="n">
         <v>41</v>
@@ -8753,10 +8753,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
         <v>5</v>
@@ -8766,54 +8766,54 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="O71" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P71" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="U71" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="V71" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="W71" t="n">
         <v>9.75</v>
       </c>
       <c r="X71" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB71" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="n">
         <v>500</v>
       </c>
       <c r="AE71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF71" t="n">
         <v>22</v>
@@ -8828,7 +8828,7 @@
         <v>45</v>
       </c>
       <c r="AJ71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
@@ -8866,20 +8866,20 @@
         <v>3.15</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="O72" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="P72" t="n">
         <v>1.38</v>
@@ -8890,10 +8890,10 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="U72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V72" t="n">
         <v>9.5</v>
@@ -8902,43 +8902,43 @@
         <v>32</v>
       </c>
       <c r="X72" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z72" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AA72" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB72" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC72" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AD72" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE72" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="AF72" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AG72" t="n">
         <v>7.3</v>
       </c>
       <c r="AH72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ72" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="73">
@@ -9604,10 +9604,10 @@
         <v>6</v>
       </c>
       <c r="N78" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O78" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P78" t="n">
         <v>1.25</v>
@@ -9714,10 +9714,10 @@
         <v>5.5</v>
       </c>
       <c r="J79" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L79" t="n">
         <v>1.3</v>
@@ -9827,13 +9827,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>3.1</v>
       </c>
       <c r="I80" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J80" t="n">
         <v>1.11</v>
@@ -9866,10 +9866,10 @@
         <v>1.57</v>
       </c>
       <c r="T80" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V80" t="n">
         <v>11</v>
@@ -9897,10 +9897,10 @@
       </c>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG80" t="n">
         <v>11</v>
@@ -10303,31 +10303,31 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M84" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O84" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P84" t="n">
         <v>1.44</v>
@@ -10336,40 +10336,40 @@
         <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S84" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T84" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U84" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V84" t="n">
         <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X84" t="n">
         <v>17</v>
       </c>
       <c r="Y84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC84" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD84" t="n">
         <v>351</v>
@@ -10384,10 +10384,10 @@
         <v>15</v>
       </c>
       <c r="AH84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI84" t="n">
         <v>41</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>34</v>
       </c>
       <c r="AJ84" t="n">
         <v>41</v>
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>3.3</v>
@@ -10434,16 +10434,16 @@
         <v>3.3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L85" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M85" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N85" t="n">
         <v>1.8</v>
@@ -10482,7 +10482,7 @@
         <v>23</v>
       </c>
       <c r="Z85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA85" t="n">
         <v>6.5</v>
@@ -10509,7 +10509,7 @@
         <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ85" t="n">
         <v>29</v>
@@ -10547,13 +10547,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H86" t="n">
         <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J86" t="n">
         <v>1.06</v>
@@ -10589,7 +10589,7 @@
         <v>7</v>
       </c>
       <c r="U86" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V86" t="n">
         <v>9</v>
@@ -10791,91 +10791,91 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H88" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I88" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J88" t="n">
         <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L88" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N88" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O88" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P88" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R88" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S88" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U88" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W88" t="n">
+        <v>51</v>
+      </c>
+      <c r="X88" t="n">
         <v>41</v>
       </c>
-      <c r="X88" t="n">
-        <v>34</v>
-      </c>
       <c r="Y88" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC88" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD88" t="n">
         <v>351</v>
       </c>
       <c r="AE88" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF88" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH88" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ88" t="n">
         <v>34</v>
@@ -11412,10 +11412,10 @@
         <v>13</v>
       </c>
       <c r="L93" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M93" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N93" t="n">
         <v>1.7</v>
@@ -11531,7 +11531,7 @@
         <v>1.08</v>
       </c>
       <c r="K94" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L94" t="n">
         <v>1.4</v>
@@ -11641,19 +11641,19 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H95" t="n">
         <v>3.1</v>
       </c>
       <c r="I95" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J95" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K95" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L95" t="n">
         <v>1.36</v>
@@ -11680,16 +11680,16 @@
         <v>1.8</v>
       </c>
       <c r="T95" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U95" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V95" t="n">
         <v>9.5</v>
       </c>
       <c r="W95" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X95" t="n">
         <v>19</v>
@@ -11719,10 +11719,10 @@
         <v>17</v>
       </c>
       <c r="AG95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH95" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI95" t="n">
         <v>29</v>
@@ -11784,10 +11784,10 @@
         <v>3.75</v>
       </c>
       <c r="N96" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O96" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P96" t="n">
         <v>1.33</v>
@@ -11897,7 +11897,7 @@
         <v>1.04</v>
       </c>
       <c r="K97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -12007,19 +12007,19 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H98" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I98" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J98" t="n">
         <v>1.03</v>
       </c>
       <c r="K98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L98" t="n">
         <v>1.18</v>
@@ -12040,10 +12040,10 @@
         <v>3.5</v>
       </c>
       <c r="R98" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S98" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T98" t="n">
         <v>7.5</v>
@@ -12052,25 +12052,25 @@
         <v>6.5</v>
       </c>
       <c r="V98" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
       </c>
       <c r="Y98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z98" t="n">
         <v>15</v>
       </c>
       <c r="AA98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB98" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC98" t="n">
         <v>67</v>
@@ -12088,10 +12088,10 @@
         <v>26</v>
       </c>
       <c r="AH98" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI98" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ98" t="n">
         <v>51</v>
@@ -12129,13 +12129,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H99" t="n">
         <v>4.1</v>
       </c>
       <c r="I99" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
@@ -12168,7 +12168,7 @@
         <v>2.2</v>
       </c>
       <c r="T99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U99" t="n">
         <v>29</v>
@@ -12180,7 +12180,7 @@
         <v>51</v>
       </c>
       <c r="X99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y99" t="n">
         <v>34</v>
@@ -12371,31 +12371,31 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J101" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M101" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N101" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O101" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -12413,22 +12413,22 @@
         <v>7</v>
       </c>
       <c r="U101" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W101" t="n">
         <v>19</v>
       </c>
       <c r="X101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y101" t="n">
         <v>29</v>
       </c>
       <c r="Z101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA101" t="n">
         <v>6</v>
@@ -12443,10 +12443,10 @@
         <v>251</v>
       </c>
       <c r="AE101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG101" t="n">
         <v>13</v>
@@ -12455,7 +12455,7 @@
         <v>41</v>
       </c>
       <c r="AI101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ101" t="n">
         <v>41</v>
@@ -12493,46 +12493,46 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H102" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L102" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M102" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N102" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O102" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P102" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q102" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R102" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S102" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T102" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U102" t="n">
         <v>8.5</v>
@@ -12544,16 +12544,16 @@
         <v>12</v>
       </c>
       <c r="X102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA102" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB102" t="n">
         <v>15</v>
@@ -12562,13 +12562,13 @@
         <v>41</v>
       </c>
       <c r="AD102" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE102" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF102" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG102" t="n">
         <v>17</v>
@@ -12621,13 +12621,13 @@
         <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L103" t="n">
         <v>1.44</v>
@@ -12636,16 +12636,16 @@
         <v>2.63</v>
       </c>
       <c r="N103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q103" t="n">
         <v>2.5</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.38</v>
       </c>
       <c r="R103" t="n">
         <v>2.38</v>
@@ -12747,7 +12747,7 @@
         <v>1.03</v>
       </c>
       <c r="K104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L104" t="n">
         <v>1.17</v>
@@ -12774,7 +12774,7 @@
         <v>2.5</v>
       </c>
       <c r="T104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U104" t="n">
         <v>15</v>
@@ -12819,7 +12819,7 @@
         <v>26</v>
       </c>
       <c r="AI104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ104" t="n">
         <v>21</v>
@@ -12857,19 +12857,19 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L105" t="n">
         <v>1.14</v>
@@ -12878,25 +12878,25 @@
         <v>5.5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="O105" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P105" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q105" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R105" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S105" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U105" t="n">
         <v>10</v>
@@ -12914,10 +12914,10 @@
         <v>19</v>
       </c>
       <c r="Z105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB105" t="n">
         <v>12</v>
@@ -12929,7 +12929,7 @@
         <v>101</v>
       </c>
       <c r="AE105" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF105" t="n">
         <v>29</v>
@@ -12982,91 +12982,91 @@
         <v>1.83</v>
       </c>
       <c r="H106" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I106" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="J106" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K106" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="L106" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M106" t="n">
-        <v>2.82</v>
+        <v>2.55</v>
       </c>
       <c r="N106" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="O106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S106" t="n">
         <v>1.65</v>
       </c>
-      <c r="P106" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R106" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S106" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T106" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="U106" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="V106" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W106" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X106" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z106" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB106" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC106" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD106" t="n">
         <v>900</v>
       </c>
       <c r="AE106" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF106" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG106" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH106" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ106" t="n">
         <v>65</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="107">
@@ -13592,7 +13592,7 @@
         <v>1.5</v>
       </c>
       <c r="H111" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I111" t="n">
         <v>6</v>
@@ -13604,16 +13604,16 @@
         <v>13</v>
       </c>
       <c r="L111" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M111" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O111" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>1.33</v>
@@ -13622,13 +13622,13 @@
         <v>3.25</v>
       </c>
       <c r="R111" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S111" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T111" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U111" t="n">
         <v>7</v>
@@ -13646,10 +13646,10 @@
         <v>26</v>
       </c>
       <c r="Z111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA111" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB111" t="n">
         <v>19</v>
@@ -13661,7 +13661,7 @@
         <v>301</v>
       </c>
       <c r="AE111" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF111" t="n">
         <v>34</v>
@@ -13711,19 +13711,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>3.3</v>
       </c>
       <c r="I112" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L112" t="n">
         <v>1.33</v>
@@ -13833,13 +13833,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H113" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I113" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J113" t="n">
         <v>1.05</v>
@@ -13917,7 +13917,7 @@
         <v>41</v>
       </c>
       <c r="AI113" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ113" t="n">
         <v>34</v>
@@ -13955,13 +13955,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H114" t="n">
         <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J114" t="n">
         <v>1.05</v>
@@ -13994,13 +13994,13 @@
         <v>1.95</v>
       </c>
       <c r="T114" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U114" t="n">
         <v>13</v>
       </c>
       <c r="V114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W114" t="n">
         <v>29</v>
@@ -14033,7 +14033,7 @@
         <v>12</v>
       </c>
       <c r="AG114" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH114" t="n">
         <v>23</v>
@@ -14360,7 +14360,7 @@
         <v>2.2</v>
       </c>
       <c r="T117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U117" t="n">
         <v>9</v>
@@ -14369,7 +14369,7 @@
         <v>8.5</v>
       </c>
       <c r="W117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X117" t="n">
         <v>12</v>
@@ -14393,7 +14393,7 @@
         <v>126</v>
       </c>
       <c r="AE117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF117" t="n">
         <v>34</v>
@@ -14408,7 +14408,7 @@
         <v>41</v>
       </c>
       <c r="AJ117" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118">
@@ -14443,27 +14443,27 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H118" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M118" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="N118" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O118" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P118" t="n">
         <v>1.39</v>
@@ -14472,13 +14472,13 @@
         <v>2.57</v>
       </c>
       <c r="R118" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S118" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T118" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U118" t="n">
         <v>7.6</v>
@@ -14493,28 +14493,28 @@
         <v>11.75</v>
       </c>
       <c r="Y118" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z118" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AB118" t="n">
         <v>16</v>
       </c>
       <c r="AC118" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD118" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE118" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG118" t="n">
         <v>17</v>
@@ -14523,7 +14523,7 @@
         <v>100</v>
       </c>
       <c r="AI118" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ118" t="n">
         <v>50</v>
@@ -14561,63 +14561,63 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="H119" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I119" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M119" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N119" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O119" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="P119" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R119" t="n">
         <v>1.62</v>
       </c>
       <c r="S119" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T119" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U119" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V119" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W119" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X119" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y119" t="n">
         <v>27</v>
       </c>
       <c r="Z119" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA119" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB119" t="n">
         <v>13</v>
@@ -14626,25 +14626,25 @@
         <v>55</v>
       </c>
       <c r="AD119" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE119" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF119" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG119" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI119" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ119" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
@@ -14932,22 +14932,22 @@
         <v>1.8</v>
       </c>
       <c r="J122" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K122" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L122" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M122" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N122" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O122" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P122" t="n">
         <v>1.44</v>
@@ -15163,10 +15163,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H124" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I124" t="n">
         <v>2.92</v>
@@ -15174,16 +15174,16 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M124" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="N124" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O124" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P124" t="n">
         <v>1.39</v>
@@ -15192,16 +15192,16 @@
         <v>2.55</v>
       </c>
       <c r="R124" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S124" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U124" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V124" t="n">
         <v>9</v>
@@ -15210,28 +15210,28 @@
         <v>23</v>
       </c>
       <c r="X124" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD124" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE124" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF124" t="n">
         <v>16</v>
@@ -15243,10 +15243,10 @@
         <v>37</v>
       </c>
       <c r="AI124" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ124" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
@@ -15296,16 +15296,16 @@
         <v>11</v>
       </c>
       <c r="L125" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M125" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N125" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O125" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P125" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -689,7 +689,7 @@
         <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -701,16 +701,16 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -1132,7 +1132,7 @@
         <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
         <v>3.1</v>
@@ -1144,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N6" t="n">
         <v>3.4</v>
@@ -1156,16 +1156,16 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
         <v>5.5</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1211,7 +1211,7 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
@@ -1531,7 +1531,7 @@
         <v>4.5</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
@@ -1559,16 +1559,16 @@
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI9" t="n">
         <v>67</v>
@@ -1738,10 +1738,10 @@
         <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.67</v>
@@ -2282,46 +2282,46 @@
         <v>2.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T17" t="n">
         <v>11</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>9.5</v>
-      </c>
       <c r="U17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
         <v>10</v>
@@ -2330,31 +2330,31 @@
         <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
@@ -2363,10 +2363,10 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2413,7 +2413,7 @@
         <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2434,10 +2434,10 @@
         <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
         <v>6</v>
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3178,7 +3178,7 @@
         <v>15</v>
       </c>
       <c r="V24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
         <v>34</v>
@@ -3282,10 +3282,10 @@
         <v>1.53</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R25" t="n">
         <v>2.1</v>
@@ -3619,94 +3619,94 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N28" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P28" t="n">
         <v>1.45</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T28" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="U28" t="n">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="V28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
         <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>90</v>
       </c>
       <c r="AD28" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE28" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>55</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -4363,7 +4363,7 @@
         <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.45</v>
@@ -4408,7 +4408,7 @@
         <v>50</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AA34" t="n">
         <v>6.3</v>
@@ -4423,7 +4423,7 @@
         <v>1250</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AF34" t="n">
         <v>11.25</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
         <v>3.35</v>
       </c>
       <c r="I37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4746,16 +4746,16 @@
         <v>2.45</v>
       </c>
       <c r="R37" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T37" t="n">
         <v>9</v>
       </c>
       <c r="U37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V37" t="n">
         <v>12.5</v>
@@ -4770,13 +4770,13 @@
         <v>50</v>
       </c>
       <c r="Z37" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
         <v>100</v>
@@ -4788,10 +4788,10 @@
         <v>6.3</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG37" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH37" t="n">
         <v>17</v>
@@ -4949,18 +4949,18 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>2.55</v>
@@ -4984,10 +4984,10 @@
         <v>1.65</v>
       </c>
       <c r="T39" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V39" t="n">
         <v>13</v>
@@ -4999,7 +4999,7 @@
         <v>37</v>
       </c>
       <c r="Y39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z39" t="n">
         <v>7.8</v>
@@ -5017,19 +5017,19 @@
         <v>900</v>
       </c>
       <c r="AE39" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG39" t="n">
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>37</v>
@@ -5429,45 +5429,45 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H43" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I43" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N43" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P43" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S43" t="n">
         <v>1.78</v>
       </c>
-      <c r="S43" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T43" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V43" t="n">
         <v>9.25</v>
@@ -5476,43 +5476,43 @@
         <v>25</v>
       </c>
       <c r="X43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z43" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AA43" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE43" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF43" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH43" t="n">
         <v>40</v>
       </c>
       <c r="AI43" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ43" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
@@ -5684,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5702,10 +5702,10 @@
         <v>1.8</v>
       </c>
       <c r="T45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
@@ -5717,28 +5717,28 @@
         <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD45" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -5824,7 +5824,7 @@
         <v>1.62</v>
       </c>
       <c r="T46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U46" t="n">
         <v>8.5</v>
@@ -5855,22 +5855,22 @@
       </c>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
         <v>17</v>
       </c>
       <c r="AG46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH46" t="n">
         <v>41</v>
       </c>
       <c r="AI46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -5905,52 +5905,52 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="P47" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R47" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W47" t="n">
         <v>41</v>
@@ -5959,40 +5959,40 @@
         <v>29</v>
       </c>
       <c r="Y47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD47" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AE47" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG47" t="n">
         <v>9</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI47" t="n">
         <v>17</v>
       </c>
       <c r="AJ47" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -6036,13 +6036,13 @@
         <v>7.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K48" t="n">
         <v>12</v>
       </c>
       <c r="L48" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
@@ -6158,10 +6158,10 @@
         <v>3.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
         <v>1.25</v>
@@ -6170,10 +6170,10 @@
         <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P49" t="n">
         <v>1.36</v>
@@ -7320,10 +7320,10 @@
         <v>2.57</v>
       </c>
       <c r="H59" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7365,28 +7365,28 @@
         <v>14.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB59" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AD59" t="n">
         <v>200</v>
       </c>
       <c r="AE59" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG59" t="n">
         <v>9.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI59" t="n">
         <v>17.5</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H61" t="n">
         <v>3.5</v>
       </c>
       <c r="I61" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7584,19 +7584,19 @@
         <v>2.72</v>
       </c>
       <c r="T61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U61" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V61" t="n">
         <v>9.75</v>
       </c>
       <c r="W61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X61" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y61" t="n">
         <v>19</v>
@@ -7605,7 +7605,7 @@
         <v>9.25</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
         <v>10.25</v>
@@ -7617,16 +7617,16 @@
         <v>150</v>
       </c>
       <c r="AE61" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH61" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI61" t="n">
         <v>17.5</v>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H62" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J62" t="n">
         <v>1.03</v>
@@ -7691,7 +7691,7 @@
         <v>1.42</v>
       </c>
       <c r="O62" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="P62" t="n">
         <v>1.25</v>
@@ -7703,22 +7703,22 @@
         <v>1.42</v>
       </c>
       <c r="S62" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T62" t="n">
         <v>12.5</v>
       </c>
       <c r="U62" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X62" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y62" t="n">
         <v>16</v>
@@ -7730,7 +7730,7 @@
         <v>8.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC62" t="n">
         <v>32</v>
@@ -7739,22 +7739,22 @@
         <v>150</v>
       </c>
       <c r="AE62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG62" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI62" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ62" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J64" t="n">
         <v>1.03</v>
@@ -7929,40 +7929,40 @@
         <v>1.14</v>
       </c>
       <c r="M64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="N64" t="n">
         <v>1.44</v>
       </c>
       <c r="O64" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="P64" t="n">
         <v>1.26</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="R64" t="n">
         <v>1.38</v>
       </c>
       <c r="S64" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U64" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="V64" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W64" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X64" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y64" t="n">
         <v>18.5</v>
@@ -7983,16 +7983,16 @@
         <v>120</v>
       </c>
       <c r="AE64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF64" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG64" t="n">
         <v>9.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI64" t="n">
         <v>16.5</v>
@@ -8036,28 +8036,28 @@
         <v>2.4</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
         <v>2.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M65" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P65" t="n">
         <v>1.44</v>
@@ -8066,19 +8066,19 @@
         <v>2.63</v>
       </c>
       <c r="R65" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S65" t="n">
         <v>1.8</v>
       </c>
-      <c r="S65" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U65" t="n">
         <v>11</v>
       </c>
       <c r="V65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W65" t="n">
         <v>23</v>
@@ -8087,13 +8087,13 @@
         <v>21</v>
       </c>
       <c r="Y65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB65" t="n">
         <v>15</v>
@@ -8102,13 +8102,13 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG65" t="n">
         <v>11</v>
@@ -8117,7 +8117,7 @@
         <v>29</v>
       </c>
       <c r="AI65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -8277,13 +8277,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J67" t="n">
         <v>1.08</v>
@@ -8304,10 +8304,10 @@
         <v>1.57</v>
       </c>
       <c r="P67" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R67" t="n">
         <v>2</v>
@@ -8361,7 +8361,7 @@
         <v>29</v>
       </c>
       <c r="AI67" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ67" t="n">
         <v>41</v>
@@ -8753,10 +8753,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
         <v>5</v>
@@ -8766,16 +8766,16 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O71" t="n">
         <v>1.62</v>
       </c>
       <c r="P71" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -8783,13 +8783,13 @@
         <v>4.9</v>
       </c>
       <c r="U71" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V71" t="n">
         <v>7.1</v>
       </c>
       <c r="W71" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X71" t="n">
         <v>11.75</v>
@@ -8798,10 +8798,10 @@
         <v>26</v>
       </c>
       <c r="Z71" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA71" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="AB71" t="n">
         <v>15.5</v>
@@ -8813,13 +8813,13 @@
         <v>500</v>
       </c>
       <c r="AE71" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF71" t="n">
         <v>22</v>
       </c>
       <c r="AG71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH71" t="n">
         <v>70</v>
@@ -9110,10 +9110,10 @@
         <v>21</v>
       </c>
       <c r="L74" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M74" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N74" t="n">
         <v>1.4</v>
@@ -9262,7 +9262,7 @@
         <v>13</v>
       </c>
       <c r="V75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W75" t="n">
         <v>23</v>
@@ -9271,13 +9271,13 @@
         <v>19</v>
       </c>
       <c r="Y75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z75" t="n">
         <v>13</v>
       </c>
       <c r="AA75" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB75" t="n">
         <v>12</v>
@@ -9289,7 +9289,7 @@
         <v>151</v>
       </c>
       <c r="AE75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF75" t="n">
         <v>15</v>
@@ -9339,13 +9339,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="J76" t="n">
         <v>1.02</v>
@@ -9354,16 +9354,16 @@
         <v>21</v>
       </c>
       <c r="L76" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M76" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N76" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O76" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P76" t="n">
         <v>1.2</v>
@@ -9372,10 +9372,10 @@
         <v>4.33</v>
       </c>
       <c r="R76" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S76" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T76" t="n">
         <v>34</v>
@@ -9384,10 +9384,10 @@
         <v>51</v>
       </c>
       <c r="V76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W76" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="X76" t="n">
         <v>67</v>
@@ -9402,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="AB76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
@@ -9411,13 +9411,13 @@
         <v>201</v>
       </c>
       <c r="AE76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF76" t="n">
         <v>8</v>
       </c>
       <c r="AG76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH76" t="n">
         <v>8.5</v>
@@ -9426,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="AJ76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -9705,19 +9705,19 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
         <v>1.3</v>
@@ -9738,10 +9738,10 @@
         <v>2.75</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S79" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T79" t="n">
         <v>6.5</v>
@@ -9753,7 +9753,7 @@
         <v>8.5</v>
       </c>
       <c r="W79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X79" t="n">
         <v>13</v>
@@ -9771,28 +9771,28 @@
         <v>19</v>
       </c>
       <c r="AC79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD79" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE79" t="n">
         <v>13</v>
       </c>
       <c r="AF79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG79" t="n">
         <v>17</v>
       </c>
       <c r="AH79" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI79" t="n">
         <v>41</v>
       </c>
       <c r="AJ79" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80">
@@ -9827,13 +9827,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="J80" t="n">
         <v>1.11</v>
@@ -9842,10 +9842,10 @@
         <v>6.5</v>
       </c>
       <c r="L80" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M80" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N80" t="n">
         <v>2.7</v>
@@ -9869,13 +9869,13 @@
         <v>6.5</v>
       </c>
       <c r="U80" t="n">
+        <v>13</v>
+      </c>
+      <c r="V80" t="n">
         <v>12</v>
       </c>
-      <c r="V80" t="n">
-        <v>11</v>
-      </c>
       <c r="W80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X80" t="n">
         <v>29</v>
@@ -9900,16 +9900,16 @@
         <v>6</v>
       </c>
       <c r="AF80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG80" t="n">
         <v>11</v>
       </c>
       <c r="AH80" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI80" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ80" t="n">
         <v>41</v>
@@ -9947,19 +9947,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J81" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L81" t="n">
         <v>1.36</v>
@@ -9998,7 +9998,7 @@
         <v>21</v>
       </c>
       <c r="X81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y81" t="n">
         <v>34</v>
@@ -10010,7 +10010,7 @@
         <v>6</v>
       </c>
       <c r="AB81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC81" t="n">
         <v>51</v>
@@ -10019,7 +10019,7 @@
         <v>351</v>
       </c>
       <c r="AE81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF81" t="n">
         <v>15</v>
@@ -10309,7 +10309,7 @@
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
@@ -10351,7 +10351,7 @@
         <v>9</v>
       </c>
       <c r="W84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X84" t="n">
         <v>17</v>
@@ -10375,7 +10375,7 @@
         <v>351</v>
       </c>
       <c r="AE84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF84" t="n">
         <v>21</v>
@@ -10509,7 +10509,7 @@
         <v>34</v>
       </c>
       <c r="AI85" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ85" t="n">
         <v>29</v>
@@ -10550,16 +10550,16 @@
         <v>1.91</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J86" t="n">
         <v>1.06</v>
       </c>
       <c r="K86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
         <v>1.33</v>
@@ -10589,13 +10589,13 @@
         <v>7</v>
       </c>
       <c r="U86" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V86" t="n">
         <v>9</v>
       </c>
       <c r="W86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X86" t="n">
         <v>17</v>
@@ -10607,7 +10607,7 @@
         <v>9.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB86" t="n">
         <v>17</v>
@@ -10791,19 +10791,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H88" t="n">
         <v>3.2</v>
       </c>
       <c r="I88" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J88" t="n">
         <v>1.08</v>
       </c>
       <c r="K88" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
         <v>1.4</v>
@@ -11418,10 +11418,10 @@
         <v>4</v>
       </c>
       <c r="N93" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O93" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P93" t="n">
         <v>1.3</v>
@@ -11519,13 +11519,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I94" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J94" t="n">
         <v>1.08</v>
@@ -11540,10 +11540,10 @@
         <v>2.75</v>
       </c>
       <c r="N94" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O94" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P94" t="n">
         <v>1.5</v>
@@ -11558,7 +11558,7 @@
         <v>1.73</v>
       </c>
       <c r="T94" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U94" t="n">
         <v>9</v>
@@ -11576,7 +11576,7 @@
         <v>34</v>
       </c>
       <c r="Z94" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA94" t="n">
         <v>6</v>
@@ -11585,10 +11585,10 @@
         <v>17</v>
       </c>
       <c r="AC94" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD94" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE94" t="n">
         <v>9</v>
@@ -12260,10 +12260,10 @@
         <v>1.27</v>
       </c>
       <c r="J100" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L100" t="n">
         <v>1.18</v>
@@ -12284,19 +12284,19 @@
         <v>3.5</v>
       </c>
       <c r="R100" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S100" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T100" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U100" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V100" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W100" t="n">
         <v>126</v>
@@ -12305,29 +12305,29 @@
         <v>67</v>
       </c>
       <c r="Y100" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA100" t="n">
         <v>11</v>
       </c>
       <c r="AB100" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC100" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF100" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH100" t="n">
         <v>7.5</v>
@@ -12371,10 +12371,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I101" t="n">
         <v>3.9</v>
@@ -12386,64 +12386,64 @@
         <v>10</v>
       </c>
       <c r="L101" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N101" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O101" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P101" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R101" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S101" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V101" t="n">
         <v>9</v>
       </c>
       <c r="W101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X101" t="n">
         <v>17</v>
       </c>
       <c r="Y101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z101" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA101" t="n">
         <v>6</v>
       </c>
       <c r="AB101" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC101" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF101" t="n">
         <v>19</v>
@@ -12455,10 +12455,10 @@
         <v>41</v>
       </c>
       <c r="AI101" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -12615,10 +12615,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I103" t="n">
         <v>6.5</v>
@@ -12636,10 +12636,10 @@
         <v>2.63</v>
       </c>
       <c r="N103" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O103" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P103" t="n">
         <v>1.5</v>
@@ -12660,10 +12660,10 @@
         <v>6.5</v>
       </c>
       <c r="V103" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X103" t="n">
         <v>17</v>
@@ -12672,7 +12672,7 @@
         <v>41</v>
       </c>
       <c r="Z103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA103" t="n">
         <v>7</v>
@@ -13104,91 +13104,91 @@
         <v>2.05</v>
       </c>
       <c r="H107" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I107" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J107" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K107" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="L107" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="N107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R107" t="n">
         <v>2</v>
       </c>
-      <c r="O107" t="n">
+      <c r="S107" t="n">
         <v>1.72</v>
       </c>
-      <c r="P107" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R107" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S107" t="n">
-        <v>1.88</v>
-      </c>
       <c r="T107" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="U107" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V107" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W107" t="n">
         <v>18</v>
       </c>
       <c r="X107" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Z107" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AA107" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB107" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC107" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AD107" t="n">
         <v>600</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF107" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG107" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH107" t="n">
         <v>50</v>
       </c>
       <c r="AI107" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
@@ -13467,13 +13467,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H110" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I110" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J110" t="n">
         <v>1.03</v>
@@ -13500,13 +13500,13 @@
         <v>3.5</v>
       </c>
       <c r="R110" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S110" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U110" t="n">
         <v>8.5</v>
@@ -13524,7 +13524,7 @@
         <v>21</v>
       </c>
       <c r="Z110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA110" t="n">
         <v>8.5</v>
@@ -13589,19 +13589,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H111" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J111" t="n">
         <v>1.04</v>
       </c>
       <c r="K111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L111" t="n">
         <v>1.25</v>
@@ -13610,10 +13610,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O111" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P111" t="n">
         <v>1.33</v>
@@ -13649,7 +13649,7 @@
         <v>12</v>
       </c>
       <c r="AA111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB111" t="n">
         <v>19</v>
@@ -13964,10 +13964,10 @@
         <v>2.45</v>
       </c>
       <c r="J114" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L114" t="n">
         <v>1.3</v>
@@ -13976,10 +13976,10 @@
         <v>3.4</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O114" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P114" t="n">
         <v>1.4</v>
@@ -14475,13 +14475,13 @@
         <v>1.75</v>
       </c>
       <c r="S118" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T118" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U118" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V118" t="n">
         <v>8</v>
@@ -14490,19 +14490,19 @@
         <v>11</v>
       </c>
       <c r="X118" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y118" t="n">
         <v>24</v>
       </c>
       <c r="Z118" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA118" t="n">
         <v>7.9</v>
       </c>
       <c r="AB118" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC118" t="n">
         <v>70</v>
@@ -14523,7 +14523,7 @@
         <v>100</v>
       </c>
       <c r="AI118" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ118" t="n">
         <v>50</v>
@@ -14561,90 +14561,90 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="H119" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I119" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M119" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="N119" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O119" t="n">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="P119" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="R119" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="S119" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="T119" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="U119" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V119" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>32</v>
+      </c>
+      <c r="X119" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG119" t="n">
         <v>9.75</v>
-      </c>
-      <c r="W119" t="n">
-        <v>29</v>
-      </c>
-      <c r="X119" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z119" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AA119" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>9.5</v>
       </c>
       <c r="AH119" t="n">
         <v>26</v>
       </c>
       <c r="AI119" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AJ119" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
@@ -14810,10 +14810,10 @@
         <v>1.67</v>
       </c>
       <c r="J121" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K121" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L121" t="n">
         <v>1.25</v>
@@ -15296,16 +15296,16 @@
         <v>11</v>
       </c>
       <c r="L125" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M125" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N125" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O125" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P125" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -790,16 +790,16 @@
         <v>1.83</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
         <v>2.75</v>
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2413,7 +2413,7 @@
         <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2422,10 +2422,10 @@
         <v>2.75</v>
       </c>
       <c r="N18" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
         <v>1.5</v>
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
@@ -2693,7 +2693,7 @@
         <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -2726,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
         <v>29</v>
@@ -2842,7 +2842,7 @@
         <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3375,94 +3375,94 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="H26" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T26" t="n">
         <v>5.8</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T26" t="n">
-        <v>6.1</v>
-      </c>
       <c r="U26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA26" t="n">
         <v>5.8</v>
       </c>
-      <c r="AA26" t="n">
-        <v>6</v>
-      </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD26" t="n">
         <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF26" t="n">
         <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -4838,7 +4838,7 @@
         <v>1.47</v>
       </c>
       <c r="H38" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I38" t="n">
         <v>5.7</v>
@@ -4899,7 +4899,7 @@
         <v>400</v>
       </c>
       <c r="AE38" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF38" t="n">
         <v>37</v>
@@ -4914,7 +4914,7 @@
         <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -5209,7 +5209,7 @@
         <v>2.25</v>
       </c>
       <c r="O41" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
@@ -5322,16 +5322,16 @@
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5785,92 +5785,92 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I46" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U46" t="n">
         <v>7</v>
       </c>
-      <c r="L46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N46" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U46" t="n">
-        <v>8.5</v>
-      </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA46" t="n">
         <v>7</v>
       </c>
-      <c r="AA46" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB46" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -5908,10 +5908,10 @@
         <v>3.7</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
@@ -5926,16 +5926,16 @@
         <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P47" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R47" t="n">
         <v>1.91</v>
@@ -5944,52 +5944,52 @@
         <v>1.8</v>
       </c>
       <c r="T47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U47" t="n">
         <v>17</v>
       </c>
       <c r="V47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W47" t="n">
         <v>41</v>
       </c>
       <c r="X47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y47" t="n">
         <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD47" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH47" t="n">
         <v>17</v>
       </c>
       <c r="AI47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="n">
         <v>34</v>
@@ -6039,7 +6039,7 @@
         <v>1.04</v>
       </c>
       <c r="K48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L48" t="n">
         <v>1.22</v>
@@ -6048,10 +6048,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P48" t="n">
         <v>1.3</v>
@@ -6149,13 +6149,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
         <v>1.05</v>
@@ -6191,7 +6191,7 @@
         <v>8.5</v>
       </c>
       <c r="U49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
@@ -6200,10 +6200,10 @@
         <v>19</v>
       </c>
       <c r="X49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z49" t="n">
         <v>11</v>
@@ -6218,19 +6218,19 @@
         <v>41</v>
       </c>
       <c r="AD49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG49" t="n">
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI49" t="n">
         <v>26</v>
@@ -6292,10 +6292,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O50" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6399,13 +6399,13 @@
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
       </c>
       <c r="K51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
         <v>1.33</v>
@@ -6640,7 +6640,7 @@
         <v>1.83</v>
       </c>
       <c r="H53" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
         <v>3.6</v>
@@ -6650,53 +6650,53 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V53" t="n">
         <v>7</v>
       </c>
       <c r="W53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X53" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z53" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB53" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE53" t="n">
         <v>10.75</v>
       </c>
-      <c r="AC53" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AF53" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG53" t="n">
         <v>10.25</v>
@@ -6708,7 +6708,7 @@
         <v>24</v>
       </c>
       <c r="AJ53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -6854,13 +6854,13 @@
         <v>2.05</v>
       </c>
       <c r="J55" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K55" t="n">
         <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M55" t="n">
         <v>4.33</v>
@@ -6973,7 +6973,7 @@
         <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J62" t="n">
         <v>1.03</v>
@@ -7691,7 +7691,7 @@
         <v>1.42</v>
       </c>
       <c r="O62" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="P62" t="n">
         <v>1.25</v>
@@ -7706,16 +7706,16 @@
         <v>2.65</v>
       </c>
       <c r="T62" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U62" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V62" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W62" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X62" t="n">
         <v>11.75</v>
@@ -7739,22 +7739,22 @@
         <v>150</v>
       </c>
       <c r="AE62" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF62" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG62" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH62" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI62" t="n">
         <v>32</v>
       </c>
       <c r="AJ62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63">
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H64" t="n">
         <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J64" t="n">
         <v>1.03</v>
@@ -7929,13 +7929,13 @@
         <v>1.14</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="N64" t="n">
         <v>1.44</v>
       </c>
       <c r="O64" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P64" t="n">
         <v>1.26</v>
@@ -7947,22 +7947,22 @@
         <v>1.38</v>
       </c>
       <c r="S64" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U64" t="n">
+        <v>20</v>
+      </c>
+      <c r="V64" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W64" t="n">
+        <v>35</v>
+      </c>
+      <c r="X64" t="n">
         <v>18.5</v>
-      </c>
-      <c r="V64" t="n">
-        <v>10</v>
-      </c>
-      <c r="W64" t="n">
-        <v>32</v>
-      </c>
-      <c r="X64" t="n">
-        <v>18</v>
       </c>
       <c r="Y64" t="n">
         <v>18.5</v>
@@ -7983,22 +7983,22 @@
         <v>120</v>
       </c>
       <c r="AE64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
         <v>9.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI64" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ64" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="65">
@@ -8033,37 +8033,37 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H65" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I65" t="n">
         <v>2.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N65" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O65" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="P65" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R65" t="n">
         <v>1.95</v>
@@ -8090,19 +8090,19 @@
         <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
       </c>
       <c r="AB65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE65" t="n">
         <v>8</v>
@@ -8114,13 +8114,13 @@
         <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI65" t="n">
         <v>26</v>
       </c>
       <c r="AJ65" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -8182,7 +8182,7 @@
         <v>2.1</v>
       </c>
       <c r="P66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q66" t="n">
         <v>3.25</v>
@@ -8286,10 +8286,10 @@
         <v>2.88</v>
       </c>
       <c r="J67" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L67" t="n">
         <v>1.44</v>
@@ -8298,13 +8298,13 @@
         <v>2.63</v>
       </c>
       <c r="N67" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O67" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P67" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q67" t="n">
         <v>2.5</v>
@@ -8420,10 +8420,10 @@
         <v>2.63</v>
       </c>
       <c r="N68" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O68" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P68" t="n">
         <v>1.53</v>
@@ -8756,79 +8756,79 @@
         <v>1.6</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P71" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U71" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V71" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W71" t="n">
         <v>9.5</v>
       </c>
       <c r="X71" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y71" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC71" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD71" t="n">
         <v>500</v>
       </c>
       <c r="AE71" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF71" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG71" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72">
@@ -9339,13 +9339,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J76" t="n">
         <v>1.02</v>
@@ -9354,10 +9354,10 @@
         <v>21</v>
       </c>
       <c r="L76" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M76" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N76" t="n">
         <v>1.36</v>
@@ -9372,10 +9372,10 @@
         <v>4.33</v>
       </c>
       <c r="R76" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T76" t="n">
         <v>34</v>
@@ -9384,10 +9384,10 @@
         <v>51</v>
       </c>
       <c r="V76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W76" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="X76" t="n">
         <v>67</v>
@@ -9402,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="AB76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC76" t="n">
         <v>51</v>
@@ -9411,13 +9411,13 @@
         <v>201</v>
       </c>
       <c r="AE76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF76" t="n">
         <v>8</v>
       </c>
       <c r="AG76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH76" t="n">
         <v>8.5</v>
@@ -9426,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="AJ76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -9488,7 +9488,7 @@
         <v>1.83</v>
       </c>
       <c r="P77" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q77" t="n">
         <v>2.75</v>
@@ -9705,13 +9705,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H79" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I79" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J79" t="n">
         <v>1.06</v>
@@ -9738,10 +9738,10 @@
         <v>2.75</v>
       </c>
       <c r="R79" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T79" t="n">
         <v>6.5</v>
@@ -9753,7 +9753,7 @@
         <v>8.5</v>
       </c>
       <c r="W79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X79" t="n">
         <v>13</v>
@@ -9771,7 +9771,7 @@
         <v>19</v>
       </c>
       <c r="AC79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD79" t="n">
         <v>351</v>
@@ -9780,7 +9780,7 @@
         <v>13</v>
       </c>
       <c r="AF79" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG79" t="n">
         <v>17</v>
@@ -9792,7 +9792,7 @@
         <v>41</v>
       </c>
       <c r="AJ79" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80">
@@ -9827,13 +9827,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>3.2</v>
       </c>
       <c r="I80" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J80" t="n">
         <v>1.11</v>
@@ -9866,7 +9866,7 @@
         <v>1.57</v>
       </c>
       <c r="T80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U80" t="n">
         <v>13</v>
@@ -9878,7 +9878,7 @@
         <v>34</v>
       </c>
       <c r="X80" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y80" t="n">
         <v>41</v>
@@ -9900,16 +9900,16 @@
         <v>6</v>
       </c>
       <c r="AF80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG80" t="n">
         <v>10</v>
       </c>
-      <c r="AG80" t="n">
-        <v>11</v>
-      </c>
       <c r="AH80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI80" t="n">
         <v>23</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>26</v>
       </c>
       <c r="AJ80" t="n">
         <v>41</v>
@@ -10315,19 +10315,19 @@
         <v>1.07</v>
       </c>
       <c r="K84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N84" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O84" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P84" t="n">
         <v>1.44</v>
@@ -10342,40 +10342,40 @@
         <v>1.73</v>
       </c>
       <c r="T84" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U84" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V84" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W84" t="n">
         <v>15</v>
       </c>
       <c r="X84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y84" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA84" t="n">
         <v>7</v>
       </c>
       <c r="AB84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC84" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD84" t="n">
         <v>351</v>
       </c>
       <c r="AE84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF84" t="n">
         <v>21</v>
@@ -11275,31 +11275,31 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>3.4</v>
       </c>
       <c r="I92" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L92" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M92" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N92" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O92" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P92" t="n">
         <v>1.4</v>
@@ -11519,19 +11519,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I94" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
         <v>1.08</v>
       </c>
       <c r="K94" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L94" t="n">
         <v>1.4</v>
@@ -11558,16 +11558,16 @@
         <v>1.73</v>
       </c>
       <c r="T94" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V94" t="n">
         <v>9</v>
       </c>
-      <c r="V94" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X94" t="n">
         <v>19</v>
@@ -11576,7 +11576,7 @@
         <v>34</v>
       </c>
       <c r="Z94" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA94" t="n">
         <v>6</v>
@@ -11585,19 +11585,19 @@
         <v>17</v>
       </c>
       <c r="AC94" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD94" t="n">
         <v>401</v>
       </c>
       <c r="AE94" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH94" t="n">
         <v>41</v>
@@ -11769,7 +11769,7 @@
         <v>4.33</v>
       </c>
       <c r="I96" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J96" t="n">
         <v>1.04</v>
@@ -11796,16 +11796,16 @@
         <v>3.25</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S96" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T96" t="n">
         <v>17</v>
       </c>
       <c r="U96" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V96" t="n">
         <v>21</v>
@@ -11820,7 +11820,7 @@
         <v>51</v>
       </c>
       <c r="Z96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA96" t="n">
         <v>9</v>
@@ -11835,13 +11835,13 @@
         <v>351</v>
       </c>
       <c r="AE96" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF96" t="n">
         <v>6.5</v>
       </c>
       <c r="AG96" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH96" t="n">
         <v>9</v>
@@ -12129,31 +12129,31 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J99" t="n">
         <v>1.03</v>
       </c>
       <c r="K99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M99" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O99" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P99" t="n">
         <v>1.29</v>
@@ -12168,19 +12168,19 @@
         <v>2.2</v>
       </c>
       <c r="T99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U99" t="n">
         <v>29</v>
       </c>
       <c r="V99" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W99" t="n">
         <v>51</v>
       </c>
       <c r="X99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y99" t="n">
         <v>34</v>
@@ -12260,22 +12260,22 @@
         <v>1.27</v>
       </c>
       <c r="J100" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L100" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M100" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N100" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O100" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P100" t="n">
         <v>1.29</v>
@@ -12371,46 +12371,46 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I101" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J101" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L101" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M101" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O101" t="n">
         <v>1.95</v>
       </c>
-      <c r="O101" t="n">
-        <v>1.85</v>
-      </c>
       <c r="P101" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U101" t="n">
         <v>10</v>
@@ -12419,19 +12419,19 @@
         <v>9</v>
       </c>
       <c r="W101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y101" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA101" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB101" t="n">
         <v>13</v>
@@ -12440,7 +12440,7 @@
         <v>41</v>
       </c>
       <c r="AD101" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE101" t="n">
         <v>12</v>
@@ -12502,16 +12502,16 @@
         <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L102" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M102" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N102" t="n">
         <v>1.7</v>
@@ -12615,19 +12615,19 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H103" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J103" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L103" t="n">
         <v>1.44</v>
@@ -12857,10 +12857,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H105" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -12920,13 +12920,13 @@
         <v>8</v>
       </c>
       <c r="AB105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD105" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE105" t="n">
         <v>19</v>
@@ -13244,31 +13244,31 @@
         <v>4</v>
       </c>
       <c r="N108" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O108" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R108" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S108" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U108" t="n">
         <v>13</v>
       </c>
       <c r="V108" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W108" t="n">
         <v>26</v>
@@ -13277,16 +13277,16 @@
         <v>19</v>
       </c>
       <c r="Y108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA108" t="n">
         <v>7</v>
       </c>
       <c r="AB108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC108" t="n">
         <v>41</v>
@@ -13295,10 +13295,10 @@
         <v>151</v>
       </c>
       <c r="AE108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG108" t="n">
         <v>10</v>
@@ -13307,10 +13307,10 @@
         <v>26</v>
       </c>
       <c r="AI108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
@@ -13354,22 +13354,22 @@
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L109" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N109" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O109" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P109" t="n">
         <v>1.36</v>
@@ -13467,13 +13467,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H110" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I110" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J110" t="n">
         <v>1.03</v>
@@ -13711,19 +13711,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>3.3</v>
       </c>
       <c r="I112" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L112" t="n">
         <v>1.33</v>
@@ -13750,19 +13750,19 @@
         <v>1.95</v>
       </c>
       <c r="T112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V112" t="n">
         <v>11</v>
       </c>
       <c r="W112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y112" t="n">
         <v>34</v>
@@ -13792,10 +13792,10 @@
         <v>9.5</v>
       </c>
       <c r="AH112" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ112" t="n">
         <v>29</v>
@@ -13964,10 +13964,10 @@
         <v>2.45</v>
       </c>
       <c r="J114" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K114" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L114" t="n">
         <v>1.3</v>
@@ -13976,10 +13976,10 @@
         <v>3.4</v>
       </c>
       <c r="N114" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O114" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P114" t="n">
         <v>1.4</v>
@@ -14077,13 +14077,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H115" t="n">
         <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J115" t="n">
         <v>1.05</v>
@@ -14104,28 +14104,28 @@
         <v>1.88</v>
       </c>
       <c r="P115" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R115" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S115" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V115" t="n">
         <v>10</v>
       </c>
       <c r="W115" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X115" t="n">
         <v>21</v>
@@ -14134,19 +14134,19 @@
         <v>29</v>
       </c>
       <c r="Z115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA115" t="n">
         <v>6.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC115" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD115" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE115" t="n">
         <v>9</v>
@@ -14158,7 +14158,7 @@
         <v>10</v>
       </c>
       <c r="AH115" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI115" t="n">
         <v>21</v>
@@ -14321,10 +14321,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I117" t="n">
         <v>5.75</v>
@@ -14354,28 +14354,28 @@
         <v>3.75</v>
       </c>
       <c r="R117" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S117" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T117" t="n">
         <v>10</v>
       </c>
       <c r="U117" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V117" t="n">
         <v>8.5</v>
       </c>
       <c r="W117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X117" t="n">
         <v>12</v>
       </c>
       <c r="Y117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z117" t="n">
         <v>17</v>
@@ -14384,7 +14384,7 @@
         <v>8</v>
       </c>
       <c r="AB117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC117" t="n">
         <v>41</v>
@@ -14399,7 +14399,7 @@
         <v>34</v>
       </c>
       <c r="AG117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH117" t="n">
         <v>51</v>
@@ -14443,13 +14443,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H118" t="n">
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -14478,7 +14478,7 @@
         <v>1.85</v>
       </c>
       <c r="T118" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U118" t="n">
         <v>7.5</v>
@@ -14490,13 +14490,13 @@
         <v>11</v>
       </c>
       <c r="X118" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y118" t="n">
         <v>24</v>
       </c>
       <c r="Z118" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA118" t="n">
         <v>7.9</v>
@@ -14514,7 +14514,7 @@
         <v>15.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG118" t="n">
         <v>17</v>
@@ -14523,7 +14523,7 @@
         <v>100</v>
       </c>
       <c r="AI118" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ118" t="n">
         <v>50</v>
@@ -14561,13 +14561,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H119" t="n">
         <v>3.05</v>
       </c>
       <c r="I119" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -14587,37 +14587,37 @@
         <v>1.45</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R119" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S119" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T119" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U119" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V119" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W119" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X119" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y119" t="n">
         <v>40</v>
       </c>
       <c r="Z119" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA119" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB119" t="n">
         <v>16</v>
@@ -14626,10 +14626,10 @@
         <v>90</v>
       </c>
       <c r="AD119" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE119" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AF119" t="n">
         <v>11</v>
@@ -14641,10 +14641,10 @@
         <v>26</v>
       </c>
       <c r="AI119" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ119" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120">
@@ -14938,16 +14938,16 @@
         <v>9</v>
       </c>
       <c r="L122" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M122" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O122" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P122" t="n">
         <v>1.44</v>
@@ -15058,16 +15058,16 @@
         <v>6.5</v>
       </c>
       <c r="L123" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M123" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N123" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O123" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P123" t="n">
         <v>1.57</v>
@@ -15302,10 +15302,10 @@
         <v>3.4</v>
       </c>
       <c r="N125" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O125" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P125" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-01.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>1.18</v>
@@ -832,10 +832,10 @@
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
@@ -854,7 +854,7 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1498,10 +1498,10 @@
         <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.5</v>
@@ -1729,13 +1729,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.14</v>
@@ -1771,10 +1771,10 @@
         <v>5.5</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W11" t="n">
         <v>23</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I12" t="n">
         <v>3.5</v>
@@ -1971,13 +1971,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2013,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -2532,22 +2532,22 @@
         <v>2.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
         <v>1.44</v>
@@ -2556,10 +2556,10 @@
         <v>2.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -2580,7 +2580,7 @@
         <v>34</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2592,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE19" t="n">
         <v>7.5</v>
@@ -2607,7 +2607,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2645,13 +2645,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.1</v>
@@ -2666,10 +2666,10 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.53</v>
@@ -2690,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
         <v>26</v>
@@ -2717,13 +2717,13 @@
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>29</v>
@@ -3133,13 +3133,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3172,13 +3172,13 @@
         <v>1.7</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W24" t="n">
         <v>34</v>
@@ -3211,10 +3211,10 @@
         <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3375,94 +3375,94 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M26" t="n">
         <v>2.37</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2.27</v>
-      </c>
       <c r="N26" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R26" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="T26" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="W26" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="Y26" t="n">
         <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD26" t="n">
         <v>700</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -3619,94 +3619,94 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="N28" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.65</v>
       </c>
       <c r="P28" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="R28" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T28" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U28" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="V28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W28" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
         <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD28" t="n">
         <v>900</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AI28" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
@@ -4363,7 +4363,7 @@
         <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.45</v>
@@ -4390,7 +4390,7 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="U34" t="n">
         <v>15.5</v>
@@ -4402,13 +4402,13 @@
         <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="n">
         <v>50</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA34" t="n">
         <v>6.3</v>
@@ -4423,10 +4423,10 @@
         <v>1250</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
         <v>10.25</v>
@@ -4435,10 +4435,10 @@
         <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -4473,13 +4473,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
         <v>1.09</v>
@@ -4500,10 +4500,10 @@
         <v>1.65</v>
       </c>
       <c r="P35" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
         <v>1.83</v>
@@ -4512,22 +4512,22 @@
         <v>1.87</v>
       </c>
       <c r="T35" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="U35" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="V35" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W35" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X35" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y35" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="n">
         <v>6.7</v>
@@ -4536,31 +4536,31 @@
         <v>6.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD35" t="n">
         <v>800</v>
       </c>
       <c r="AE35" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH35" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -4595,13 +4595,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>2.37</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
@@ -4619,13 +4619,13 @@
         <v>1.78</v>
       </c>
       <c r="O36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
         <v>1.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R36" t="n">
         <v>1.65</v>
@@ -4634,22 +4634,22 @@
         <v>2.12</v>
       </c>
       <c r="T36" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="U36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V36" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W36" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X36" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
         <v>8.5</v>
@@ -4664,25 +4664,25 @@
         <v>60</v>
       </c>
       <c r="AD36" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE36" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AF36" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -4852,7 +4852,7 @@
         <v>3.45</v>
       </c>
       <c r="N38" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O38" t="n">
         <v>2.2</v>
@@ -4869,7 +4869,7 @@
         <v>8.75</v>
       </c>
       <c r="U38" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V38" t="n">
         <v>8</v>
@@ -4884,25 +4884,25 @@
         <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD38" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="n">
         <v>18</v>
@@ -4914,7 +4914,7 @@
         <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -4949,13 +4949,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4978,25 +4978,25 @@
         <v>2.32</v>
       </c>
       <c r="R39" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S39" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y39" t="n">
         <v>50</v>
@@ -5005,31 +5005,31 @@
         <v>7.8</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD39" t="n">
         <v>900</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG39" t="n">
         <v>9</v>
       </c>
       <c r="AH39" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="n">
         <v>37</v>
@@ -5209,7 +5209,7 @@
         <v>2.25</v>
       </c>
       <c r="O41" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
@@ -5316,10 +5316,10 @@
         <v>6.25</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.29</v>
@@ -5334,10 +5334,10 @@
         <v>1.85</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>2</v>
@@ -5364,7 +5364,7 @@
         <v>29</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
         <v>7.5</v>
@@ -5373,7 +5373,7 @@
         <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD42" t="n">
         <v>351</v>
@@ -5663,13 +5663,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J45" t="n">
         <v>1.05</v>
@@ -5684,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="O45" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="P45" t="n">
         <v>1.44</v>
@@ -5702,10 +5702,10 @@
         <v>1.8</v>
       </c>
       <c r="T45" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="U45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V45" t="n">
         <v>8.5</v>
@@ -5714,31 +5714,31 @@
         <v>11</v>
       </c>
       <c r="X45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD45" t="n">
         <v>151</v>
       </c>
       <c r="AE45" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
         <v>17</v>
@@ -5785,92 +5785,92 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K46" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T46" t="n">
         <v>5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T46" t="n">
-        <v>4.5</v>
       </c>
       <c r="U46" t="n">
         <v>7</v>
       </c>
       <c r="V46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
         <v>15</v>
       </c>
       <c r="X46" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB46" t="n">
         <v>23</v>
       </c>
-      <c r="Y46" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>29</v>
-      </c>
       <c r="AC46" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF46" t="n">
         <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH46" t="n">
         <v>51</v>
       </c>
       <c r="AI46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>51</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -5905,43 +5905,43 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="N47" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="P47" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R47" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S47" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T47" t="n">
         <v>9</v>
@@ -5962,10 +5962,10 @@
         <v>41</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB47" t="n">
         <v>19</v>
@@ -5974,7 +5974,7 @@
         <v>67</v>
       </c>
       <c r="AD47" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE47" t="n">
         <v>6</v>
@@ -6027,10 +6027,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
         <v>7.5</v>
@@ -6042,16 +6042,16 @@
         <v>13</v>
       </c>
       <c r="L48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N48" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P48" t="n">
         <v>1.3</v>
@@ -6060,13 +6060,13 @@
         <v>3.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U48" t="n">
         <v>7</v>
@@ -6087,10 +6087,10 @@
         <v>12</v>
       </c>
       <c r="AA48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
         <v>51</v>
@@ -6149,13 +6149,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.05</v>
@@ -6170,10 +6170,10 @@
         <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O49" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P49" t="n">
         <v>1.36</v>
@@ -6188,10 +6188,10 @@
         <v>2.05</v>
       </c>
       <c r="T49" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
@@ -6224,13 +6224,13 @@
         <v>11</v>
       </c>
       <c r="AF49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG49" t="n">
         <v>12</v>
       </c>
       <c r="AH49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI49" t="n">
         <v>26</v>
@@ -6292,10 +6292,10 @@
         <v>3.75</v>
       </c>
       <c r="N50" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O50" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6399,7 +6399,7 @@
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J51" t="n">
         <v>1.07</v>
@@ -6515,25 +6515,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H52" t="n">
         <v>3.1</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J52" t="n">
         <v>1.06</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L52" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N52" t="n">
         <v>2</v>
@@ -6554,7 +6554,7 @@
         <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U52" t="n">
         <v>10</v>
@@ -6590,7 +6590,7 @@
         <v>11</v>
       </c>
       <c r="AF52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG52" t="n">
         <v>13</v>
@@ -6602,7 +6602,7 @@
         <v>29</v>
       </c>
       <c r="AJ52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
@@ -6660,25 +6660,25 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="U53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V53" t="n">
         <v>7</v>
       </c>
       <c r="W53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X53" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA53" t="n">
         <v>6.2</v>
@@ -6693,10 +6693,10 @@
         <v>175</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF53" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG53" t="n">
         <v>10.25</v>
@@ -6705,10 +6705,10 @@
         <v>40</v>
       </c>
       <c r="AI53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>24</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -6854,13 +6854,13 @@
         <v>2.05</v>
       </c>
       <c r="J55" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K55" t="n">
         <v>15</v>
       </c>
       <c r="L55" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M55" t="n">
         <v>4.33</v>
@@ -6973,7 +6973,7 @@
         <v>4.1</v>
       </c>
       <c r="I56" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -7344,10 +7344,10 @@
         <v>2.37</v>
       </c>
       <c r="T59" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="U59" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V59" t="n">
         <v>9.75</v>
@@ -7356,10 +7356,10 @@
         <v>30</v>
       </c>
       <c r="X59" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y59" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z59" t="n">
         <v>14.5</v>
@@ -7368,7 +7368,7 @@
         <v>7.2</v>
       </c>
       <c r="AB59" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC59" t="n">
         <v>37</v>
@@ -7377,22 +7377,22 @@
         <v>200</v>
       </c>
       <c r="AE59" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF59" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG59" t="n">
         <v>9.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI59" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ59" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="H61" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I61" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
@@ -7572,31 +7572,31 @@
         <v>2.5</v>
       </c>
       <c r="P61" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R61" t="n">
         <v>1.4</v>
       </c>
       <c r="S61" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T61" t="n">
         <v>13.5</v>
       </c>
       <c r="U61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>29</v>
+      </c>
+      <c r="X61" t="n">
         <v>17</v>
-      </c>
-      <c r="V61" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W61" t="n">
-        <v>30</v>
-      </c>
-      <c r="X61" t="n">
-        <v>17.5</v>
       </c>
       <c r="Y61" t="n">
         <v>19</v>
@@ -7605,13 +7605,13 @@
         <v>9.25</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD61" t="n">
         <v>150</v>
@@ -7629,10 +7629,10 @@
         <v>32</v>
       </c>
       <c r="AI61" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ61" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="62">
@@ -8045,7 +8045,7 @@
         <v>1.08</v>
       </c>
       <c r="K65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L65" t="n">
         <v>1.4</v>
@@ -8054,10 +8054,10 @@
         <v>2.75</v>
       </c>
       <c r="N65" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O65" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P65" t="n">
         <v>1.5</v>
@@ -8090,7 +8090,7 @@
         <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
@@ -8114,7 +8114,7 @@
         <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI65" t="n">
         <v>26</v>
@@ -8182,7 +8182,7 @@
         <v>2.1</v>
       </c>
       <c r="P66" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q66" t="n">
         <v>3.25</v>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H67" t="n">
         <v>3</v>
@@ -8286,34 +8286,34 @@
         <v>2.88</v>
       </c>
       <c r="J67" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L67" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M67" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N67" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O67" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P67" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q67" t="n">
         <v>2.5</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S67" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -8322,7 +8322,7 @@
         <v>11</v>
       </c>
       <c r="V67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W67" t="n">
         <v>26</v>
@@ -8331,10 +8331,10 @@
         <v>23</v>
       </c>
       <c r="Y67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA67" t="n">
         <v>6</v>
@@ -8343,10 +8343,10 @@
         <v>17</v>
       </c>
       <c r="AC67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD67" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE67" t="n">
         <v>7.5</v>
@@ -8420,10 +8420,10 @@
         <v>2.63</v>
       </c>
       <c r="N68" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P68" t="n">
         <v>1.53</v>
@@ -8521,13 +8521,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H69" t="n">
         <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J69" t="n">
         <v>1.07</v>
@@ -8569,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="W69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X69" t="n">
         <v>23</v>
@@ -8605,7 +8605,7 @@
         <v>26</v>
       </c>
       <c r="AI69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ69" t="n">
         <v>34</v>
@@ -9360,10 +9360,10 @@
         <v>6.5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O76" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P76" t="n">
         <v>1.2</v>
@@ -9470,10 +9470,10 @@
         <v>7</v>
       </c>
       <c r="J77" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K77" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L77" t="n">
         <v>1.3</v>
@@ -9488,7 +9488,7 @@
         <v>1.83</v>
       </c>
       <c r="P77" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q77" t="n">
         <v>2.75</v>
@@ -9506,10 +9506,10 @@
         <v>6</v>
       </c>
       <c r="V77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X77" t="n">
         <v>13</v>
@@ -9705,13 +9705,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="H79" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I79" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
         <v>1.06</v>
@@ -9720,40 +9720,40 @@
         <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O79" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P79" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T79" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V79" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W79" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X79" t="n">
         <v>13</v>
@@ -9765,10 +9765,10 @@
         <v>10</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC79" t="n">
         <v>67</v>
@@ -9777,19 +9777,19 @@
         <v>351</v>
       </c>
       <c r="AE79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG79" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH79" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI79" t="n">
         <v>51</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>41</v>
       </c>
       <c r="AJ79" t="n">
         <v>51</v>
@@ -9836,10 +9836,10 @@
         <v>2.3</v>
       </c>
       <c r="J80" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L80" t="n">
         <v>1.53</v>
@@ -10069,13 +10069,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I82" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -10083,52 +10083,52 @@
         <v>1.4</v>
       </c>
       <c r="M82" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N82" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O82" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P82" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="R82" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S82" t="n">
         <v>1.72</v>
       </c>
       <c r="T82" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U82" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="V82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W82" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X82" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y82" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z82" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA82" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB82" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC82" t="n">
         <v>90</v>
@@ -10137,22 +10137,22 @@
         <v>900</v>
       </c>
       <c r="AE82" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF82" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG82" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH82" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI82" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ82" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -10187,88 +10187,88 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I83" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="M83" t="n">
-        <v>2.47</v>
+        <v>2.15</v>
       </c>
       <c r="N83" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="O83" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="P83" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="R83" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S83" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T83" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V83" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W83" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X83" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y83" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z83" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA83" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB83" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC83" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF83" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG83" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH83" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI83" t="n">
         <v>32</v>
       </c>
       <c r="AJ83" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
@@ -10303,13 +10303,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J84" t="n">
         <v>1.07</v>
@@ -10318,16 +10318,16 @@
         <v>9</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M84" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O84" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P84" t="n">
         <v>1.44</v>
@@ -10336,10 +10336,10 @@
         <v>2.63</v>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S84" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T84" t="n">
         <v>6.5</v>
@@ -10348,13 +10348,13 @@
         <v>8</v>
       </c>
       <c r="V84" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W84" t="n">
         <v>15</v>
       </c>
       <c r="X84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y84" t="n">
         <v>29</v>
@@ -10375,7 +10375,7 @@
         <v>351</v>
       </c>
       <c r="AE84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF84" t="n">
         <v>21</v>
@@ -10384,7 +10384,7 @@
         <v>15</v>
       </c>
       <c r="AH84" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI84" t="n">
         <v>41</v>
@@ -11109,7 +11109,7 @@
         <v>45</v>
       </c>
       <c r="AG90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH90" t="n">
         <v>200</v>
@@ -11519,19 +11519,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>3.2</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J94" t="n">
         <v>1.08</v>
       </c>
       <c r="K94" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L94" t="n">
         <v>1.4</v>
@@ -11540,10 +11540,10 @@
         <v>2.75</v>
       </c>
       <c r="N94" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O94" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P94" t="n">
         <v>1.5</v>
@@ -11552,22 +11552,22 @@
         <v>2.5</v>
       </c>
       <c r="R94" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S94" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T94" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U94" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V94" t="n">
         <v>9</v>
       </c>
       <c r="W94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X94" t="n">
         <v>19</v>
@@ -11585,7 +11585,7 @@
         <v>17</v>
       </c>
       <c r="AC94" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD94" t="n">
         <v>401</v>
@@ -11594,10 +11594,10 @@
         <v>9.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH94" t="n">
         <v>41</v>
@@ -11650,10 +11650,10 @@
         <v>3.25</v>
       </c>
       <c r="J95" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K95" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L95" t="n">
         <v>1.36</v>
@@ -11763,19 +11763,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H96" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I96" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="J96" t="n">
         <v>1.04</v>
       </c>
       <c r="K96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" t="n">
         <v>1.25</v>
@@ -11784,10 +11784,10 @@
         <v>3.75</v>
       </c>
       <c r="N96" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O96" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P96" t="n">
         <v>1.33</v>
@@ -11796,10 +11796,10 @@
         <v>3.25</v>
       </c>
       <c r="R96" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S96" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T96" t="n">
         <v>17</v>
@@ -11808,10 +11808,10 @@
         <v>41</v>
       </c>
       <c r="V96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W96" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X96" t="n">
         <v>51</v>
@@ -11820,16 +11820,16 @@
         <v>51</v>
       </c>
       <c r="Z96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD96" t="n">
         <v>351</v>
@@ -11838,13 +11838,13 @@
         <v>6.5</v>
       </c>
       <c r="AF96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG96" t="n">
         <v>9</v>
       </c>
       <c r="AH96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI96" t="n">
         <v>12</v>
@@ -12144,16 +12144,16 @@
         <v>15</v>
       </c>
       <c r="L99" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M99" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O99" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P99" t="n">
         <v>1.29</v>
@@ -12392,10 +12392,10 @@
         <v>3.75</v>
       </c>
       <c r="N101" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O101" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P101" t="n">
         <v>1.36</v>
@@ -12502,16 +12502,16 @@
         <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K102" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L102" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M102" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N102" t="n">
         <v>1.7</v>
@@ -12863,13 +12863,13 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J105" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L105" t="n">
         <v>1.14</v>
@@ -12878,10 +12878,10 @@
         <v>5.5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O105" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P105" t="n">
         <v>1.25</v>
@@ -12896,7 +12896,7 @@
         <v>2.38</v>
       </c>
       <c r="T105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U105" t="n">
         <v>10</v>
@@ -12914,22 +12914,22 @@
         <v>19</v>
       </c>
       <c r="Z105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA105" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC105" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD105" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF105" t="n">
         <v>29</v>
@@ -12982,46 +12982,46 @@
         <v>1.83</v>
       </c>
       <c r="H106" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I106" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J106" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K106" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L106" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M106" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N106" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P106" t="n">
         <v>1.53</v>
       </c>
-      <c r="P106" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q106" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R106" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S106" t="n">
         <v>1.65</v>
       </c>
       <c r="T106" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U106" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V106" t="n">
         <v>8.75</v>
@@ -13030,16 +13030,16 @@
         <v>14.5</v>
       </c>
       <c r="X106" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y106" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z106" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA106" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB106" t="n">
         <v>19</v>
@@ -13051,16 +13051,16 @@
         <v>900</v>
       </c>
       <c r="AE106" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF106" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG106" t="n">
         <v>15</v>
       </c>
       <c r="AH106" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI106" t="n">
         <v>50</v>
@@ -13134,10 +13134,10 @@
         <v>2.4</v>
       </c>
       <c r="R107" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S107" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T107" t="n">
         <v>6.2</v>
@@ -13152,7 +13152,7 @@
         <v>18</v>
       </c>
       <c r="X107" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y107" t="n">
         <v>35</v>
@@ -13170,7 +13170,7 @@
         <v>100</v>
       </c>
       <c r="AD107" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AE107" t="n">
         <v>8.5</v>
@@ -13232,16 +13232,16 @@
         <v>2.6</v>
       </c>
       <c r="J108" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K108" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L108" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M108" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N108" t="n">
         <v>1.7</v>
@@ -13720,10 +13720,10 @@
         <v>2.3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K112" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L112" t="n">
         <v>1.33</v>
@@ -14199,13 +14199,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H116" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I116" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="J116" t="n">
         <v>1.04</v>
@@ -14214,16 +14214,16 @@
         <v>13</v>
       </c>
       <c r="L116" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M116" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N116" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O116" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P116" t="n">
         <v>1.3</v>
@@ -14241,19 +14241,19 @@
         <v>15</v>
       </c>
       <c r="U116" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V116" t="n">
         <v>15</v>
       </c>
       <c r="W116" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X116" t="n">
         <v>34</v>
       </c>
       <c r="Y116" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z116" t="n">
         <v>13</v>
@@ -14274,13 +14274,13 @@
         <v>8.5</v>
       </c>
       <c r="AF116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG116" t="n">
         <v>8.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI116" t="n">
         <v>13</v>
@@ -14443,27 +14443,27 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="H118" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I118" t="n">
-        <v>5.4</v>
+        <v>4.55</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M118" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N118" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O118" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="P118" t="n">
         <v>1.39</v>
@@ -14472,61 +14472,61 @@
         <v>2.57</v>
       </c>
       <c r="R118" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S118" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T118" t="n">
         <v>7.4</v>
       </c>
       <c r="U118" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V118" t="n">
         <v>8</v>
       </c>
       <c r="W118" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X118" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y118" t="n">
         <v>24</v>
       </c>
       <c r="Z118" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA118" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB118" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD118" t="n">
         <v>500</v>
       </c>
       <c r="AE118" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AG118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH118" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AI118" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ118" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
@@ -14679,19 +14679,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H120" t="n">
         <v>3.2</v>
       </c>
       <c r="I120" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J120" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L120" t="n">
         <v>1.44</v>
@@ -14700,28 +14700,28 @@
         <v>2.63</v>
       </c>
       <c r="N120" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O120" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R120" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S120" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
       </c>
       <c r="U120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V120" t="n">
         <v>11</v>
@@ -14730,19 +14730,19 @@
         <v>29</v>
       </c>
       <c r="X120" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y120" t="n">
         <v>41</v>
       </c>
       <c r="Z120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA120" t="n">
         <v>6</v>
       </c>
       <c r="AB120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC120" t="n">
         <v>67</v>
@@ -14751,16 +14751,16 @@
         <v>1250</v>
       </c>
       <c r="AE120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG120" t="n">
         <v>11</v>
       </c>
       <c r="AH120" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI120" t="n">
         <v>23</v>
@@ -14807,7 +14807,7 @@
         <v>3.8</v>
       </c>
       <c r="I121" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J121" t="n">
         <v>1.05</v>
@@ -14843,7 +14843,7 @@
         <v>13</v>
       </c>
       <c r="U121" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V121" t="n">
         <v>15</v>
@@ -14864,7 +14864,7 @@
         <v>7.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC121" t="n">
         <v>51</v>
@@ -15403,90 +15403,90 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H126" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>2.57</v>
+        <v>3.45</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M126" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N126" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O126" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P126" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R126" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S126" t="n">
         <v>1.78</v>
       </c>
-      <c r="S126" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T126" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U126" t="n">
+        <v>10</v>
+      </c>
+      <c r="V126" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W126" t="n">
+        <v>21</v>
+      </c>
+      <c r="X126" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z126" t="n">
         <v>7.6</v>
       </c>
-      <c r="U126" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="V126" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W126" t="n">
-        <v>35</v>
-      </c>
-      <c r="X126" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y126" t="n">
+      <c r="AA126" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI126" t="n">
         <v>37</v>
       </c>
-      <c r="Z126" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ126" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
